--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://retiina.sharepoint.com/sites/MARS_INTERNAL/Shared Documents/ENGINEERING/Field Performance/Indy FMPCS reports/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_FBA532CE3D2A657BE19EDCD3A645D17B5363C0F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F9B10C-2613-4136-94F2-5FF99BAC0751}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_FBA532CE3D2A657BE19EDCD3A645D17B5363C0F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D116736C-6414-420B-9584-AE15747ED151}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,28 @@
     <sheet name="Inspection Log" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="309">
   <si>
     <t>Date</t>
   </si>
@@ -825,6 +841,12 @@
   </si>
   <si>
     <t>0:31:32</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
   </si>
   <si>
     <t>Week</t>
@@ -948,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,6 +988,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -994,7 +1022,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1002,16 +1030,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,8 +1143,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InspectionLog" displayName="InspectionLog" ref="A1:E161">
-  <autoFilter ref="A1:E161" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InspectionLog" displayName="InspectionLog" ref="A1:E165">
+  <autoFilter ref="A1:E165" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Strand"/>
@@ -1346,20 +1453,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="E165" sqref="A162:E165"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1419,7 +1528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1499,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1516,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1567,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1584,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1601,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1618,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1635,7 +1744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1652,7 +1761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1669,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1686,7 +1795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1703,7 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1720,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1737,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1754,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1771,7 +1880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1788,7 +1897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1805,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1822,7 +1931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1839,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1856,7 +1965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1873,7 +1982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1890,7 +1999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -1907,7 +2016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1924,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1941,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1958,7 +2067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1975,7 +2084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1992,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2009,7 +2118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2026,7 +2135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2043,7 +2152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2060,7 +2169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2077,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2094,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -2111,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -2128,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -2145,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -2162,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2179,7 +2288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2196,7 +2305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -2213,7 +2322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15" customHeight="1">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -2230,7 +2339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15" customHeight="1">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2247,7 +2356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15" customHeight="1">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -2264,7 +2373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15" customHeight="1">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -2281,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15" customHeight="1">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -2298,7 +2407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -2315,7 +2424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15" customHeight="1">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2332,7 +2441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -2349,7 +2458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2366,7 +2475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -2383,7 +2492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15" customHeight="1">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -2400,7 +2509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -2417,7 +2526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="15" customHeight="1">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -2434,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="15" customHeight="1">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -2451,7 +2560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="15" customHeight="1">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -2468,7 +2577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="15" customHeight="1">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -2485,7 +2594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="15" customHeight="1">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -2502,7 +2611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15" customHeight="1">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -2519,7 +2628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="15" customHeight="1">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -2536,7 +2645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="15" customHeight="1">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -2553,7 +2662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="15" customHeight="1">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -2570,7 +2679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15" customHeight="1">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -2587,7 +2696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="15" customHeight="1">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -2604,7 +2713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="15" customHeight="1">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -2621,7 +2730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="15" customHeight="1">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2638,7 +2747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="15" customHeight="1">
       <c r="A75" t="s">
         <v>139</v>
       </c>
@@ -2655,7 +2764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="15" customHeight="1">
       <c r="A76" t="s">
         <v>141</v>
       </c>
@@ -2672,7 +2781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="15" customHeight="1">
       <c r="A77" t="s">
         <v>142</v>
       </c>
@@ -2689,7 +2798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="15" customHeight="1">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -2706,7 +2815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="15" customHeight="1">
       <c r="A79" t="s">
         <v>145</v>
       </c>
@@ -2723,7 +2832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="15" customHeight="1">
       <c r="A80" t="s">
         <v>145</v>
       </c>
@@ -2740,7 +2849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="15" customHeight="1">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -2757,7 +2866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="15" customHeight="1">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -2774,7 +2883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="15" customHeight="1">
       <c r="A83" t="s">
         <v>145</v>
       </c>
@@ -2791,7 +2900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="15" customHeight="1">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -2808,7 +2917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="15" customHeight="1">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -2825,7 +2934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="15" customHeight="1">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -2842,7 +2951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="15" customHeight="1">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -2859,7 +2968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="15" customHeight="1">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -2876,7 +2985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="15" customHeight="1">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -2893,7 +3002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="15" customHeight="1">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -2910,7 +3019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="15" customHeight="1">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -2927,7 +3036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="15" customHeight="1">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -2944,7 +3053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15" customHeight="1">
       <c r="A93" t="s">
         <v>163</v>
       </c>
@@ -2961,7 +3070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="15" customHeight="1">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -2978,7 +3087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="15" customHeight="1">
       <c r="A95" t="s">
         <v>168</v>
       </c>
@@ -2995,7 +3104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="15" customHeight="1">
       <c r="A96" t="s">
         <v>168</v>
       </c>
@@ -3012,7 +3121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="15" customHeight="1">
       <c r="A97" t="s">
         <v>168</v>
       </c>
@@ -3029,7 +3138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="15" customHeight="1">
       <c r="A98" t="s">
         <v>168</v>
       </c>
@@ -3046,7 +3155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="15" customHeight="1">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -3063,7 +3172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="15" customHeight="1">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -3080,7 +3189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="15" customHeight="1">
       <c r="A101" t="s">
         <v>175</v>
       </c>
@@ -3097,7 +3206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="15" customHeight="1">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -3114,7 +3223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="15" customHeight="1">
       <c r="A103" t="s">
         <v>178</v>
       </c>
@@ -3131,7 +3240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="15" customHeight="1">
       <c r="A104" t="s">
         <v>181</v>
       </c>
@@ -3148,7 +3257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="15" customHeight="1">
       <c r="A105" t="s">
         <v>183</v>
       </c>
@@ -3165,7 +3274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="15" customHeight="1">
       <c r="A106" t="s">
         <v>185</v>
       </c>
@@ -3182,7 +3291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="15" customHeight="1">
       <c r="A107" t="s">
         <v>185</v>
       </c>
@@ -3199,7 +3308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="15" customHeight="1">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -3216,7 +3325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="15" customHeight="1">
       <c r="A109" t="s">
         <v>188</v>
       </c>
@@ -3233,7 +3342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="15" customHeight="1">
       <c r="A110" t="s">
         <v>191</v>
       </c>
@@ -3250,7 +3359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="15" customHeight="1">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -3267,7 +3376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="15" customHeight="1">
       <c r="A112" t="s">
         <v>191</v>
       </c>
@@ -3284,7 +3393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="15" customHeight="1">
       <c r="A113" t="s">
         <v>195</v>
       </c>
@@ -3301,7 +3410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="15" customHeight="1">
       <c r="A114" t="s">
         <v>197</v>
       </c>
@@ -3318,7 +3427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="15" customHeight="1">
       <c r="A115" t="s">
         <v>199</v>
       </c>
@@ -3335,7 +3444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="15" customHeight="1">
       <c r="A116" t="s">
         <v>201</v>
       </c>
@@ -3352,7 +3461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="15" customHeight="1">
       <c r="A117" t="s">
         <v>201</v>
       </c>
@@ -3369,7 +3478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="15" customHeight="1">
       <c r="A118" t="s">
         <v>201</v>
       </c>
@@ -3386,7 +3495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="15" customHeight="1">
       <c r="A119" t="s">
         <v>205</v>
       </c>
@@ -3403,7 +3512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="15" customHeight="1">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -3420,7 +3529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="15" customHeight="1">
       <c r="A121" t="s">
         <v>208</v>
       </c>
@@ -3437,7 +3546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="15" customHeight="1">
       <c r="A122" t="s">
         <v>210</v>
       </c>
@@ -3454,7 +3563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="15" customHeight="1">
       <c r="A123" t="s">
         <v>210</v>
       </c>
@@ -3471,7 +3580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="15" customHeight="1">
       <c r="A124" t="s">
         <v>210</v>
       </c>
@@ -3488,7 +3597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="15" customHeight="1">
       <c r="A125" t="s">
         <v>214</v>
       </c>
@@ -3505,7 +3614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="15" customHeight="1">
       <c r="A126" t="s">
         <v>214</v>
       </c>
@@ -3522,7 +3631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="15" customHeight="1">
       <c r="A127" t="s">
         <v>217</v>
       </c>
@@ -3539,7 +3648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="15" customHeight="1">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -3556,7 +3665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="15" customHeight="1">
       <c r="A129" t="s">
         <v>219</v>
       </c>
@@ -3573,7 +3682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="15" customHeight="1">
       <c r="A130" t="s">
         <v>219</v>
       </c>
@@ -3590,7 +3699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="15" customHeight="1">
       <c r="A131" t="s">
         <v>219</v>
       </c>
@@ -3607,7 +3716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="15" customHeight="1">
       <c r="A132" t="s">
         <v>219</v>
       </c>
@@ -3624,7 +3733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="15" customHeight="1">
       <c r="A133" t="s">
         <v>225</v>
       </c>
@@ -3641,7 +3750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="15" customHeight="1">
       <c r="A134" t="s">
         <v>227</v>
       </c>
@@ -3658,7 +3767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="15" customHeight="1">
       <c r="A135" t="s">
         <v>227</v>
       </c>
@@ -3675,7 +3784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="15" customHeight="1">
       <c r="A136" t="s">
         <v>230</v>
       </c>
@@ -3692,7 +3801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="15" customHeight="1">
       <c r="A137" t="s">
         <v>230</v>
       </c>
@@ -3709,7 +3818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="15" customHeight="1">
       <c r="A138" t="s">
         <v>230</v>
       </c>
@@ -3726,7 +3835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="15" customHeight="1">
       <c r="A139" t="s">
         <v>230</v>
       </c>
@@ -3743,7 +3852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="15" customHeight="1">
       <c r="A140" t="s">
         <v>230</v>
       </c>
@@ -3760,7 +3869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="15" customHeight="1">
       <c r="A141" t="s">
         <v>236</v>
       </c>
@@ -3777,7 +3886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="15" customHeight="1">
       <c r="A142" t="s">
         <v>236</v>
       </c>
@@ -3794,7 +3903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="15" customHeight="1">
       <c r="A143" t="s">
         <v>239</v>
       </c>
@@ -3811,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="15" customHeight="1">
       <c r="A144" t="s">
         <v>241</v>
       </c>
@@ -3828,7 +3937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="15" customHeight="1">
       <c r="A145" t="s">
         <v>241</v>
       </c>
@@ -3845,7 +3954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="15" customHeight="1">
       <c r="A146" t="s">
         <v>241</v>
       </c>
@@ -3862,7 +3971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="15" customHeight="1">
       <c r="A147" t="s">
         <v>245</v>
       </c>
@@ -3879,7 +3988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" ht="15" customHeight="1">
       <c r="A148" t="s">
         <v>247</v>
       </c>
@@ -3896,7 +4005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" ht="15" customHeight="1">
       <c r="A149" t="s">
         <v>249</v>
       </c>
@@ -3913,7 +4022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="15" customHeight="1">
       <c r="A150" t="s">
         <v>251</v>
       </c>
@@ -3930,7 +4039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="15" customHeight="1">
       <c r="A151" t="s">
         <v>253</v>
       </c>
@@ -3947,7 +4056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="15" customHeight="1">
       <c r="A152" t="s">
         <v>253</v>
       </c>
@@ -3964,7 +4073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="15" customHeight="1">
       <c r="A153" t="s">
         <v>256</v>
       </c>
@@ -3981,7 +4090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="15" customHeight="1">
       <c r="A154" t="s">
         <v>256</v>
       </c>
@@ -3998,7 +4107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="15" customHeight="1">
       <c r="A155" t="s">
         <v>256</v>
       </c>
@@ -4015,7 +4124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="15" customHeight="1">
       <c r="A156" t="s">
         <v>260</v>
       </c>
@@ -4032,7 +4141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="15" customHeight="1">
       <c r="A157" t="s">
         <v>260</v>
       </c>
@@ -4049,7 +4158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="15" customHeight="1">
       <c r="A158" t="s">
         <v>260</v>
       </c>
@@ -4066,7 +4175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="15" customHeight="1">
       <c r="A159" t="s">
         <v>264</v>
       </c>
@@ -4083,7 +4192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="15" customHeight="1">
       <c r="A160" t="s">
         <v>264</v>
       </c>
@@ -4100,8 +4209,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="161" spans="1:5" ht="15" customHeight="1">
+      <c r="A161" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B161" t="s">
@@ -4114,6 +4223,74 @@
         <v>8</v>
       </c>
       <c r="E161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15">
+      <c r="A162" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="8">
+        <v>1.1377314814814814E-2</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15">
+      <c r="A163" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="8">
+        <v>6.9236111111111109E-2</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15">
+      <c r="A164" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="8">
+        <v>5.0428240740740739E-2</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15">
+      <c r="A165" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="11">
+        <v>3.7256944444444447E-2</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4132,238 +4309,238 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4375,6 +4552,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="2fd70fd6-28ef-4f79-a1fb-4b243a173ad8" xsi:nil="true"/>
@@ -4383,15 +4569,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4636,39 +4813,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B44E0C-04EE-45D7-98AB-1A190E31C295}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2fd70fd6-28ef-4f79-a1fb-4b243a173ad8"/>
-    <ds:schemaRef ds:uri="a693da2d-68d6-4d1b-a77b-8b4102002ee1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610B9E4E-DEE7-4CD4-94B4-33E699CCA1A3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610B9E4E-DEE7-4CD4-94B4-33E699CCA1A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B44E0C-04EE-45D7-98AB-1A190E31C295}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F854217-8482-4E61-B5E8-B8EE52E773FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a693da2d-68d6-4d1b-a77b-8b4102002ee1"/>
-    <ds:schemaRef ds:uri="2fd70fd6-28ef-4f79-a1fb-4b243a173ad8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F854217-8482-4E61-B5E8-B8EE52E773FA}"/>
 </file>
--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://retiina.sharepoint.com/sites/MARS_INTERNAL/Shared Documents/ENGINEERING/Field Performance/Indy FMPCS reports/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_FBA532CE3D2A657BE19EDCD3A645D17B5363C0F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D116736C-6414-420B-9584-AE15747ED151}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B6E1D4-D763-4E33-8308-02CF659E7032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inspection Log" sheetId="1" r:id="rId1"/>
@@ -996,7 +996,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,8 +1021,20 @@
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1072,6 +1084,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -1099,26 +1122,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1455,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="E165" sqref="A162:E165"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4210,7 +4239,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="15" t="s">
         <v>264</v>
       </c>
       <c r="B161" t="s">
@@ -4227,70 +4256,70 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="7">
         <v>1.1377314814814814E-2</v>
       </c>
-      <c r="D162" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="9" t="s">
+      <c r="D162" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C163" s="8">
         <v>6.9236111111111109E-2</v>
       </c>
-      <c r="D163" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="9" t="s">
+      <c r="D163" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C164" s="8">
         <v>5.0428240740740739E-2</v>
       </c>
-      <c r="D164" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="9" t="s">
+      <c r="D164" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="11">
+      <c r="C165" s="9">
         <v>3.7256944444444447E-2</v>
       </c>
-      <c r="D165" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="12" t="s">
+      <c r="D165" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4307,7 +4336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
@@ -4533,14 +4564,14 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>275</v>
+      <c r="B19" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4561,17 +4592,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2fd70fd6-28ef-4f79-a1fb-4b243a173ad8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a693da2d-68d6-4d1b-a77b-8b4102002ee1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C51AB0ABC057AB48B0C195A4A0E97E38" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="40c1f8559f1529b023672d026f7e881f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a693da2d-68d6-4d1b-a77b-8b4102002ee1" xmlns:ns3="2fd70fd6-28ef-4f79-a1fb-4b243a173ad8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43c55f43aabd0006de862212ea44b414" ns2:_="" ns3:_="">
     <xsd:import namespace="a693da2d-68d6-4d1b-a77b-8b4102002ee1"/>
@@ -4812,14 +4832,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2fd70fd6-28ef-4f79-a1fb-4b243a173ad8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a693da2d-68d6-4d1b-a77b-8b4102002ee1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610B9E4E-DEE7-4CD4-94B4-33E699CCA1A3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B44E0C-04EE-45D7-98AB-1A190E31C295}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F854217-8482-4E61-B5E8-B8EE52E773FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F854217-8482-4E61-B5E8-B8EE52E773FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B44E0C-04EE-45D7-98AB-1A190E31C295}"/>
 </file>
--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://retiina.sharepoint.com/sites/MARS_INTERNAL/Shared Documents/ENGINEERING/Field Performance/Indy FMPCS reports/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B6E1D4-D763-4E33-8308-02CF659E7032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_FBA532CE3D2A657BE19EDCD3A645D17B5363C0F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3E420F-0A58-4449-BC08-428DF45FE19E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inspection Log" sheetId="1" r:id="rId1"/>
@@ -1136,9 +1136,6 @@
     <xf numFmtId="21" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1148,6 +1145,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4239,7 +4239,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="14" t="s">
         <v>264</v>
       </c>
       <c r="B161" t="s">
@@ -4256,70 +4256,70 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C162" s="7">
         <v>1.1377314814814814E-2</v>
       </c>
-      <c r="D162" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162" s="12" t="s">
+      <c r="D162" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C163" s="8">
         <v>6.9236111111111109E-2</v>
       </c>
-      <c r="D163" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="12" t="s">
+      <c r="D163" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C164" s="8">
         <v>5.0428240740740739E-2</v>
       </c>
-      <c r="D164" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="12" t="s">
+      <c r="D164" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="9">
-        <v>3.7256944444444447E-2</v>
-      </c>
-      <c r="D165" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="14" t="s">
+      <c r="C165" s="16">
+        <v>4.5810185185185183E-2</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4336,8 +4336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4570,7 +4570,7 @@
       <c r="B19" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4583,15 +4583,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C51AB0ABC057AB48B0C195A4A0E97E38" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="40c1f8559f1529b023672d026f7e881f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a693da2d-68d6-4d1b-a77b-8b4102002ee1" xmlns:ns3="2fd70fd6-28ef-4f79-a1fb-4b243a173ad8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43c55f43aabd0006de862212ea44b414" ns2:_="" ns3:_="">
     <xsd:import namespace="a693da2d-68d6-4d1b-a77b-8b4102002ee1"/>
@@ -4832,7 +4823,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="2fd70fd6-28ef-4f79-a1fb-4b243a173ad8" xsi:nil="true"/>
@@ -4843,14 +4834,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610B9E4E-DEE7-4CD4-94B4-33E699CCA1A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F854217-8482-4E61-B5E8-B8EE52E773FA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F854217-8482-4E61-B5E8-B8EE52E773FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B44E0C-04EE-45D7-98AB-1A190E31C295}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B44E0C-04EE-45D7-98AB-1A190E31C295}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610B9E4E-DEE7-4CD4-94B4-33E699CCA1A3}"/>
 </file>
--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -38,12 +38,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00FFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -59,11 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -141,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E5" headerRowCount="1">
-  <autoFilter ref="A1:E5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E160" headerRowCount="1">
+  <autoFilter ref="A1:E160"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -155,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C2" headerRowCount="1">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C20" headerRowCount="1">
+  <autoFilter ref="A1:C20"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -455,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,17 +506,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>1:49:21</t>
+          <t>0:27:04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -520,51 +526,51 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>0:41:47</t>
+          <t>1:40:44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>0:42:58</t>
+          <t>1:13:17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -574,34 +580,4219 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>1:29:12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>1:35:07</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0:40:59</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1:47:12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>1:54:01</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>1:16:39</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>1:23:47</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>1:50:02</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0:06:48</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1:24:24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>1:06:08</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>1:39:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>1:40:37</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>1:30:27</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>1:34:13</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>1:02:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>1:43:07</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0:11:24</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1:50:47</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>1:27:23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>1:29:09</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>1:02:36</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>1:37:51</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>1:26:07</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>1:29:40</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>1:42:41</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>1:37:57</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0:01:46</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>1:40:49</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>1:54:59</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>1:42:33</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>1:41:52</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>1:29:47</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>1:38:45</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>1:36:51</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>1:29:25</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>1:38:23</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>1:43:30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>1:26:57</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1:42:55</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>1:35:26</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>1:50:48</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>2:00:05</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>1:24:11</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>1:08:23</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>1:41:15</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>1:06:40</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>1:30:26</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>1:45:58</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>1:18:57</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>0:06:50</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>1:45:21</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>1:18:24</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0:04:36</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>1:02:01</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>1:54:10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>0:51:31</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>0:08:49</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>1:39:13</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>1:43:27</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>2:47:24</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:44:40</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>0:06:35</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>0:27:40</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1:30:11</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>1:26:12</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0:23:57</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0:43:44</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>1:40:32</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>3:18:45</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>0:41:13</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>0:13:06</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>1:49:49</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0:16:28</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>1:51:42</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>1:34:57</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>3:35:22</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:38:37</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>2:59:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>1:38:43</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>1:37:54</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>0:02:36</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:36:19</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>0:24:49</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>1:52:46</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>1:29:17</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>0:23:17</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0:01:38</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>1:16:58</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>0:08:44</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>1:21:08</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>1:26:43</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>1:35:44</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0:28:16</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>1:31:53</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>1:12:36</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>0:46:07</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>1:19:03</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>0:18:14</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>1:28:54</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>1:24:32</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>3:08:31</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>1:17:29</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>1:25:38</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>1:13:16</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>0:51:07</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>1:07:48</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>1:36:15</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>1:12:47</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>1:18:54</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>1:15:16</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>0:12:06</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>0:13:28</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>1:30:45</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>1:02:15</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>0:24:06</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>1:31:47</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>0:45:33</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>0:45:45</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>2:10:10</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>1:44:20</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>1:54:51</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>1:01:10</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>1:28:06</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>0:06:19</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>1:04:12</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>1:10:25</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>0:09:56</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>0:13:13</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>2:51:52</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>0:29:27</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>1:02:31</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>0:51:47</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0:45:51</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>1:02:02</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>1:54:37</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>2:24:32</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>5:06:45</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>1:09:01</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>0:31:32</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>1:42:25</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>0:10:35</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>1:39:42</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>0:16:23</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>1:12:37</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C156" s="4" t="inlineStr">
+        <is>
+          <t>0:53:39</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>1:49:21</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
           <t>2025-05-18</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Strand 6</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C158" s="3" t="inlineStr">
         <is>
           <t>1:40:46</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>0:42:58</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>0:41:47</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -619,7 +4810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +4819,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -652,17 +4843,323 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-17-25 to 05-18-25</t>
+          <t>01-07-25 to 01-10-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 5, Strand 6</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 6, Strand 8</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01-13-25 to 01-18-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-21-25 to 01-26-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-27-25 to 02-02-25</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>02-03-25 to 02-09-25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02-10-25 to 02-16-25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02-17-25 to 02-23-25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 8</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02-24-25 to 03-02-25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>03-04-25 to 03-04-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>03-11-25 to 03-12-25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03-17-25 to 03-22-25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03-24-25 to 03-30-25</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03-31-25 to 04-05-25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04-07-25 to 04-12-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04-14-25 to 04-20-25</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04-21-25 to 04-27-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04-29-25 to 05-02-25</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05-05-25 to 05-10-25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 5, Strand 6, Strand 8</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05-12-25 to 05-18-25</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -4573,6 +4573,106 @@
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>0:56:24</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>0:41:34</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>0:49:17</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>1:06:15</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -4592,7 +4692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4962,6 +5062,57 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Week Range</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strands Completed</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>All 8 Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05-18-25 to 05-24-25</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 8</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05-25-25 to 05-31-25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 6</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E164" headerRowCount="1">
-  <autoFilter ref="A1:E164"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E168" headerRowCount="1">
+  <autoFilter ref="A1:E168"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C21" headerRowCount="1">
-  <autoFilter ref="A1:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C22" headerRowCount="1">
+  <autoFilter ref="A1:C22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -469,7 +469,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1:35:07</t>
+          <t>1:29:12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:29:12</t>
+          <t>1:35:07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1:16:39</t>
+          <t>1:54:01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>1:54:01</t>
+          <t>1:47:12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1:47:12</t>
+          <t>1:16:39</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1:30:27</t>
+          <t>1:34:13</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1:34:13</t>
+          <t>1:40:37</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>1:40:37</t>
+          <t>1:30:27</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1084,17 +1084,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>1:29:09</t>
+          <t>1:02:36</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>1:02:36</t>
+          <t>1:29:09</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>1:29:40</t>
+          <t>1:42:41</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>1:42:41</t>
+          <t>1:29:40</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>1:36:51</t>
+          <t>1:29:25</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>1:29:25</t>
+          <t>1:36:51</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>1:35:26</t>
+          <t>1:50:48</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>1:50:48</t>
+          <t>1:35:26</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>1:45:58</t>
+          <t>1:18:57</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>1:18:57</t>
+          <t>1:45:58</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>1:54:10</t>
+          <t>1:02:01</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>1:02:01</t>
+          <t>1:54:10</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2084,17 +2084,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>0:27:40</t>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -2134,22 +2134,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>0:44:40</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>2:47:24</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>2:47:24</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>0:27:40</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2172,9 +2172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2184,22 +2184,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>0:06:35</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1:26:12</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>1:26:12</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>3:18:45</t>
+          <t>1:40:32</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -2259,12 +2259,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>1:40:32</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0:23:57</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2272,9 +2272,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2284,22 +2284,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>0:23:57</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>3:18:45</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2309,17 +2309,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0:43:44</t>
+          <t>0:41:13</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
@@ -2334,17 +2334,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>0:41:13</t>
+          <t>0:43:44</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>3:35:22</t>
+          <t>1:34:57</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>0:38:37</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>1:51:42</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2472,9 +2472,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>1:34:57</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>0:38:37</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2497,9 +2497,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E81" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>1:51:42</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2522,9 +2522,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>0:17:48</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>3:35:22</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2547,9 +2547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>2:54:06</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:24:49</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2672,9 +2672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>0:24:49</t>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>0:36:19</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2722,9 +2722,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>1:24:32</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3172,9 +3172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>0:23:04</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>1:24:32</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3197,9 +3197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>1:07:48</t>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>1:36:15</t>
+          <t>1:07:48</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3459,17 +3459,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:12:06</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3484,17 +3484,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:12:06</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>0:45:33</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>1:31:47</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3547,9 +3547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3559,17 +3559,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>1:31:47</t>
+          <t>1:02:15</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
@@ -3584,22 +3584,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>1:02:15</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E125" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>0:24:06</t>
+          <t>0:45:45</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3634,12 +3634,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>0:45:45</t>
+          <t>0:24:06</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>1:54:51</t>
+          <t>1:44:20</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>1:44:20</t>
+          <t>2:10:10</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t>2:10:10</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3747,9 +3747,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E131" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3759,22 +3759,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>0:26:24</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>1:54:51</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4034,12 +4034,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C143" s="4" t="inlineStr">
-        <is>
-          <t>0:51:47</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>0:45:51</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>0:45:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>0:51:47</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4134,17 +4134,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>2:24:32</t>
+          <t>5:06:45</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>5:06:45</t>
+          <t>2:24:32</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>0:10:35</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>1:42:25</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4234,22 +4234,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="inlineStr">
-        <is>
-          <t>1:42:25</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E151" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:31:32</t>
+          <t>0:10:35</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>1:12:37</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>0:16:23</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4297,9 +4297,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E153" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>0:16:23</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>1:39:42</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4322,9 +4322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E154" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>1:39:42</t>
+          <t>1:12:37</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4409,22 +4409,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>0:41:47</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>1:40:46</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4434,22 +4434,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>1:40:46</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>0:42:58</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E159" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4459,12 +4459,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>0:42:58</t>
+          <t>0:41:47</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C165" s="4" t="inlineStr">
-        <is>
-          <t>0:56:24</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>0:41:34</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>0:41:34</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>0:56:24</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4692,7 +4692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5065,49 +5065,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Week Range</t>
+          <t>05-25-25 to 05-31-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strands Completed</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>All 8 Present</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>05-18-25 to 05-24-25</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Strand 1, Strand 8</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05-25-25 to 05-31-25</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>Strand 2, Strand 6</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -659,12 +659,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1:54:01</t>
+          <t>1:16:39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1:16:39</t>
+          <t>1:54:01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -834,12 +834,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>1:06:08</t>
+          <t>1:39:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1:39:45</t>
+          <t>1:06:08</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1:34:13</t>
+          <t>1:40:37</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1:40:37</t>
+          <t>1:30:27</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>1:30:27</t>
+          <t>1:34:13</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1009,22 +1009,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0:11:24</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>1:50:47</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1034,22 +1034,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>1:50:47</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0:11:24</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1184,12 +1184,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>1:42:41</t>
+          <t>1:29:40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>1:29:40</t>
+          <t>1:42:41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>0:01:46</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>1:40:49</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1272,9 +1272,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>1:40:49</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1297,9 +1297,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1434,17 +1434,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>1:29:25</t>
+          <t>1:36:51</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>1:36:51</t>
+          <t>1:29:25</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>1:50:48</t>
+          <t>1:35:26</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>1:35:26</t>
+          <t>1:50:48</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>1:24:11</t>
+          <t>2:00:05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>2:00:05</t>
+          <t>1:24:11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>1:08:23</t>
+          <t>1:41:15</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>1:41:15</t>
+          <t>1:08:23</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>1:18:57</t>
+          <t>1:45:58</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>1:45:58</t>
+          <t>1:18:57</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>1:02:01</t>
+          <t>1:54:10</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>1:54:10</t>
+          <t>1:02:01</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2084,22 +2084,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>0:44:40</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>2:47:24</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>1:30:11</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:27:40</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2122,9 +2122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2134,17 +2134,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>2:47:24</t>
+          <t>1:26:12</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:27:40</t>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -2184,17 +2184,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>1:26:12</t>
+          <t>1:30:11</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>1:40:32</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0:41:13</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2247,9 +2247,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>0:41:13</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>1:40:32</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2322,9 +2322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>1:34:57</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2447,9 +2447,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E79" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>1:51:42</t>
+          <t>3:35:22</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>0:38:37</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>2:59:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2497,9 +2497,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>0:17:48</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>1:51:42</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2522,9 +2522,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>3:35:22</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:38:37</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2547,9 +2547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>2:59:00</t>
+          <t>1:34:57</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>0:24:49</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2672,9 +2672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>0:36:19</t>
+          <t>0:00:03</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>2:54:06</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2722,9 +2722,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E90" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:00:03</t>
+          <t>0:24:49</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>0:01:38</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>1:16:58</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2847,9 +2847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E95" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2859,12 +2859,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>1:16:58</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>0:08:44</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2872,9 +2872,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2884,12 +2884,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:08:44</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2934,12 +2934,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>1:26:43</t>
+          <t>1:35:44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>1:35:44</t>
+          <t>1:26:43</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2984,12 +2984,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>1:31:53</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0:28:16</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2997,9 +2997,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E101" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C102" s="2" t="inlineStr">
-        <is>
-          <t>0:28:16</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>1:31:53</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3022,9 +3022,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>1:28:54</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>0:18:14</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3122,9 +3122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>0:18:14</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>1:28:54</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3147,9 +3147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>0:23:04</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>3:08:31</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3172,9 +3172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>1:24:32</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3197,9 +3197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E109" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>3:08:31</t>
+          <t>1:24:32</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>1:36:15</t>
+          <t>1:07:48</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>1:07:48</t>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>1:12:47</t>
+          <t>1:18:54</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>1:18:54</t>
+          <t>1:12:47</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3459,17 +3459,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:12:06</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3484,17 +3484,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:12:06</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>1:31:47</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>0:45:45</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3547,9 +3547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>0:45:45</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>1:31:47</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3622,9 +3622,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3684,17 +3684,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>1:44:20</t>
+          <t>1:01:10</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -3709,12 +3709,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t>2:10:10</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3722,9 +3722,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E130" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>0:26:24</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>2:10:10</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3747,9 +3747,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3784,17 +3784,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>1:01:10</t>
+          <t>1:44:20</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>0:09:56</t>
+          <t>0:13:13</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>0:13:13</t>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4034,12 +4034,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>0:45:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>0:51:47</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C144" s="4" t="inlineStr">
-        <is>
-          <t>0:51:47</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0:45:51</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4134,17 +4134,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>5:06:45</t>
+          <t>2:24:32</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>2:24:32</t>
+          <t>1:09:01</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4184,17 +4184,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>1:09:01</t>
+          <t>5:06:45</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C150" s="3" t="inlineStr">
-        <is>
-          <t>1:42:25</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>0:10:35</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E150" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4259,22 +4259,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>0:10:35</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>1:42:25</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>0:16:23</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>1:39:42</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4297,9 +4297,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>1:39:42</t>
+          <t>1:12:37</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>1:12:37</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>0:16:23</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4347,9 +4347,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E155" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E155" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4409,22 +4409,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>1:40:46</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>0:42:58</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E158" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>0:42:58</t>
+          <t>0:41:47</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4459,22 +4459,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>0:41:47</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>1:40:46</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C163" s="4" t="inlineStr">
-        <is>
-          <t>0:56:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>1:12:46</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4547,9 +4547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C164" s="3" t="inlineStr">
-        <is>
-          <t>1:12:46</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>0:56:50</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4572,9 +4572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E164" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4584,12 +4584,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>0:41:34</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>0:56:24</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C166" s="4" t="inlineStr">
-        <is>
-          <t>0:56:24</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>0:41:34</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4634,12 +4634,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>0:49:17</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>1:06:15</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4647,9 +4647,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4659,12 +4659,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C168" s="3" t="inlineStr">
-        <is>
-          <t>1:06:15</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>0:49:17</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4672,9 +4672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E168" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-05-25 to 01-11-25</t>
+          <t>01-04-25 to 01-10-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4742,29 +4742,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-12-25 to 01-18-25</t>
+          <t>01-11-25 to 01-17-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-19-25 to 01-25-25</t>
+          <t>01-18-25 to 01-24-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -4776,7 +4776,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-26-25 to 02-01-25</t>
+          <t>01-25-25 to 01-31-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4793,7 +4793,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-02-25 to 02-08-25</t>
+          <t>02-01-25 to 02-07-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4810,24 +4810,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-09-25 to 02-15-25</t>
+          <t>02-08-25 to 02-14-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-16-25 to 02-22-25</t>
+          <t>02-15-25 to 02-21-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4844,12 +4844,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-23-25 to 03-01-25</t>
+          <t>02-22-25 to 02-28-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 4, Strand 5, Strand 6, Strand 8</t>
+          <t>Strand 2, Strand 4, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -4861,12 +4861,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-02-25 to 03-08-25</t>
+          <t>03-01-25 to 03-07-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -4878,7 +4878,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-09-25 to 03-15-25</t>
+          <t>03-08-25 to 03-14-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4895,7 +4895,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-16-25 to 03-22-25</t>
+          <t>03-15-25 to 03-21-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-23-25 to 03-29-25</t>
+          <t>03-22-25 to 03-28-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4929,7 +4929,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-30-25 to 04-05-25</t>
+          <t>03-29-25 to 04-04-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4946,12 +4946,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-06-25 to 04-12-25</t>
+          <t>04-05-25 to 04-11-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
+          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -4963,7 +4963,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-13-25 to 04-19-25</t>
+          <t>04-12-25 to 04-18-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4980,7 +4980,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-20-25 to 04-26-25</t>
+          <t>04-19-25 to 04-25-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4997,7 +4997,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-27-25 to 05-03-25</t>
+          <t>04-26-25 to 05-02-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5014,12 +5014,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05-04-25 to 05-10-25</t>
+          <t>05-03-25 to 05-09-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 3, Strand 5, Strand 6, Strand 8</t>
+          <t>Strand 1, Strand 3, Strand 5, Strand 6</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -5031,7 +5031,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05-11-25 to 05-17-25</t>
+          <t>05-10-25 to 05-16-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5048,29 +5048,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05-18-25 to 05-24-25</t>
+          <t>05-17-25 to 05-23-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05-25-25 to 05-31-25</t>
+          <t>05-24-25 to 05-30-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 6</t>
+          <t>Strand 1, Strand 2, Strand 6, Strand 8</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Sorter-Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA73A23A-A6F1-47F0-860A-58A603D80998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333603C7-A211-47E6-9D3A-16EB3932765E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inspection Log" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -575,6 +575,15 @@
     <t>0:49:17</t>
   </si>
   <si>
+    <t>0:45:37</t>
+  </si>
+  <si>
+    <t>1:04:39</t>
+  </si>
+  <si>
+    <t>2:40:18</t>
+  </si>
+  <si>
     <t>Week Range</t>
   </si>
   <si>
@@ -693,6 +702,9 @@
   </si>
   <si>
     <t>Strand 6, Strand 8</t>
+  </si>
+  <si>
+    <t>Strand 5, Strand 6, Strand 7</t>
   </si>
 </sst>
 </file>
@@ -1080,13 +1092,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -3947,6 +3959,57 @@
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3959,9 +4022,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3972,21 +4037,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -3994,10 +4059,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -4005,10 +4070,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -4016,10 +4081,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -4027,10 +4092,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -4038,10 +4103,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -4049,10 +4114,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -4060,10 +4125,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -4071,10 +4136,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -4082,10 +4147,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -4093,10 +4158,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
@@ -4104,10 +4169,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -4115,10 +4180,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -4126,10 +4191,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -4137,10 +4202,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -4148,10 +4213,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
@@ -4159,10 +4224,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
@@ -4170,10 +4235,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
@@ -4181,10 +4246,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -4192,10 +4257,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -4203,12 +4268,23 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Sorter-Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333603C7-A211-47E6-9D3A-16EB3932765E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38441A8-B8E5-488B-A644-A49D73A79860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inspection Log" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="232">
   <si>
     <t>Date</t>
   </si>
@@ -584,6 +584,15 @@
     <t>2:40:18</t>
   </si>
   <si>
+    <t>0:55:22</t>
+  </si>
+  <si>
+    <t>0:55:51</t>
+  </si>
+  <si>
+    <t>0:50:13</t>
+  </si>
+  <si>
     <t>Week Range</t>
   </si>
   <si>
@@ -705,6 +714,9 @@
   </si>
   <si>
     <t>Strand 5, Strand 6, Strand 7</t>
+  </si>
+  <si>
+    <t>Strand 1, Strand 2, Strand 4</t>
   </si>
 </sst>
 </file>
@@ -782,8 +794,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InspectionLog" displayName="InspectionLog" ref="A1:E168">
-  <autoFilter ref="A1:E168" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InspectionLog" displayName="InspectionLog" ref="A1:E174">
+  <autoFilter ref="A1:E174" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Strand"/>
@@ -796,8 +808,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C22">
-  <autoFilter ref="A1:C22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C24">
+  <autoFilter ref="A1:C24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Week Range"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Strands Completed"/>
@@ -1092,9 +1104,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4012,6 +4024,57 @@
         <v>11</v>
       </c>
     </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -4022,10 +4085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4037,21 +4100,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -4059,10 +4122,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -4070,10 +4133,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -4081,10 +4144,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -4092,10 +4155,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -4103,10 +4166,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -4114,10 +4177,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -4125,10 +4188,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -4136,10 +4199,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -4147,10 +4210,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -4158,10 +4221,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
@@ -4169,10 +4232,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -4180,10 +4243,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -4191,10 +4254,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -4202,10 +4265,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -4213,10 +4276,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
@@ -4224,10 +4287,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
@@ -4235,10 +4298,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
@@ -4246,10 +4309,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -4257,10 +4320,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -4268,10 +4331,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
@@ -4279,12 +4342,23 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Sorter-Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38441A8-B8E5-488B-A644-A49D73A79860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B155E3B-A4AF-4C65-8630-175C152E88A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inspection Log" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="230">
   <si>
     <t>Date</t>
   </si>
@@ -605,9 +605,6 @@
     <t>05-24-25 to 05-30-25</t>
   </si>
   <si>
-    <t>Strand 1, Strand 2, Strand 6, Strand 8</t>
-  </si>
-  <si>
     <t>05-17-25 to 05-23-25</t>
   </si>
   <si>
@@ -713,10 +710,7 @@
     <t>Strand 6, Strand 8</t>
   </si>
   <si>
-    <t>Strand 5, Strand 6, Strand 7</t>
-  </si>
-  <si>
-    <t>Strand 1, Strand 2, Strand 4</t>
+    <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
   </si>
 </sst>
 </file>
@@ -808,8 +802,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C24">
-  <autoFilter ref="A1:C24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C22">
+  <autoFilter ref="A1:C22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+    <sortCondition descending="1" ref="A1:A22"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Week Range"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Strands Completed"/>
@@ -1106,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0"/>
+    <sheetView topLeftCell="A160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4085,10 +4082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4114,7 +4111,7 @@
         <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -4122,10 +4119,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
         <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>196</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -4133,10 +4130,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -4144,10 +4141,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
         <v>198</v>
-      </c>
-      <c r="B5" t="s">
-        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -4155,10 +4152,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
         <v>200</v>
-      </c>
-      <c r="B6" t="s">
-        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -4166,10 +4163,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
         <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -4177,10 +4174,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
         <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -4188,10 +4185,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
         <v>206</v>
-      </c>
-      <c r="B9" t="s">
-        <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -4199,10 +4196,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
         <v>208</v>
-      </c>
-      <c r="B10" t="s">
-        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -4210,10 +4207,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
         <v>210</v>
-      </c>
-      <c r="B11" t="s">
-        <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -4221,10 +4218,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
@@ -4232,10 +4229,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -4243,10 +4240,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
         <v>214</v>
-      </c>
-      <c r="B14" t="s">
-        <v>215</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -4254,10 +4251,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" t="s">
         <v>216</v>
-      </c>
-      <c r="B15" t="s">
-        <v>217</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -4265,10 +4262,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" t="s">
         <v>218</v>
-      </c>
-      <c r="B16" t="s">
-        <v>219</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -4276,10 +4273,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" t="s">
         <v>220</v>
-      </c>
-      <c r="B17" t="s">
-        <v>221</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
@@ -4287,10 +4284,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
@@ -4298,10 +4295,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>11</v>
@@ -4309,10 +4306,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
         <v>224</v>
-      </c>
-      <c r="B20" t="s">
-        <v>225</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -4320,10 +4317,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" t="s">
         <v>226</v>
-      </c>
-      <c r="B21" t="s">
-        <v>227</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -4331,34 +4328,12 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
         <v>228</v>
       </c>
-      <c r="B22" t="s">
-        <v>229</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Sorter-Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B155E3B-A4AF-4C65-8630-175C152E88A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FA858-5A69-45D5-97F1-E5AE35615384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +751,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -764,18 +770,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC6EFCE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4085,7 +4097,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4113,8 +4125,8 @@
       <c r="B2" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4124,7 +4136,7 @@
       <c r="B3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Sorter-Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FA858-5A69-45D5-97F1-E5AE35615384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFF2589-FA41-4F83-8957-72063E2DC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +757,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -770,13 +776,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,6 +792,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC7CE"/>
       <color rgb="FFC6EFCE"/>
     </mruColors>
   </colors>
@@ -4125,8 +4133,8 @@
       <c r="B2" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4158,7 +4166,7 @@
       <c r="B5" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1:35:07</t>
+          <t>1:29:12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:29:12</t>
+          <t>1:35:07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1:47:12</t>
+          <t>1:16:39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1:16:39</t>
+          <t>1:47:12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -759,22 +759,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0:06:48</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>1:50:02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -784,22 +784,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>1:50:02</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0:06:48</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -909,17 +909,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1:34:13</t>
+          <t>1:30:27</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>1:30:27</t>
+          <t>1:34:13</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>1:42:41</t>
+          <t>1:29:40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>1:29:40</t>
+          <t>1:42:41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>1:29:25</t>
+          <t>1:36:51</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>1:36:51</t>
+          <t>1:29:25</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>1:50:48</t>
+          <t>1:35:26</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>1:35:26</t>
+          <t>1:50:48</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>2:00:05</t>
+          <t>1:24:11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>1:24:11</t>
+          <t>2:00:05</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>1:18:57</t>
+          <t>1:45:58</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>1:45:58</t>
+          <t>1:18:57</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>1:54:10</t>
+          <t>1:02:01</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>1:02:01</t>
+          <t>1:54:10</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>1:30:11</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:27:40</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2122,9 +2122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2134,17 +2134,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>0:44:40</t>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:27:40</t>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>0:06:35</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1:30:11</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2197,9 +2197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>3:18:45</t>
+          <t>1:40:32</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -2259,22 +2259,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>1:40:32</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0:43:44</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>0:43:44</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>3:18:45</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2322,9 +2322,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>0:38:37</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>3:35:22</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2472,9 +2472,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>1:51:42</t>
+          <t>1:34:57</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>1:34:57</t>
+          <t>1:51:42</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>3:35:22</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:38:37</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2547,9 +2547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>0:36:19</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2672,9 +2672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>2:54:06</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2722,9 +2722,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E90" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>1:29:17</t>
+          <t>1:52:46</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>1:52:46</t>
+          <t>1:29:17</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3159,12 +3159,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>1:24:32</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3172,9 +3172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>0:23:04</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>1:24:32</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3197,9 +3197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>1:36:15</t>
+          <t>1:07:48</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>1:07:48</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>0:51:07</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3347,9 +3347,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E115" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C116" s="4" t="inlineStr">
-        <is>
-          <t>0:51:07</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3372,9 +3372,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3459,17 +3459,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:12:06</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3484,17 +3484,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:12:06</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>0:45:33</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>1:31:47</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3547,9 +3547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3559,12 +3559,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>1:31:47</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>0:24:06</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3572,9 +3572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>0:24:06</t>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>1:54:51</t>
+          <t>1:44:20</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3709,12 +3709,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t>2:10:10</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3722,9 +3722,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E130" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3734,17 +3734,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>1:44:20</t>
+          <t>2:10:10</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -3759,22 +3759,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>0:26:24</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>1:54:51</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>0:09:56</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>1:10:25</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,9 +3897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>1:10:25</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3922,9 +3922,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4034,12 +4034,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>0:45:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>0:51:47</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C144" s="4" t="inlineStr">
-        <is>
-          <t>0:51:47</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0:45:51</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>1:02:02</t>
+          <t>1:54:37</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>1:54:37</t>
+          <t>1:02:02</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4134,17 +4134,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>5:06:45</t>
+          <t>2:24:32</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>2:24:32</t>
+          <t>5:06:45</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C150" s="3" t="inlineStr">
-        <is>
-          <t>1:42:25</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>0:10:35</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E150" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4234,22 +4234,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>0:10:35</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>1:42:25</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>1:12:37</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>0:16:23</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4297,9 +4297,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E153" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>0:16:23</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>1:39:42</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4322,9 +4322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E154" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>1:39:42</t>
+          <t>1:12:37</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4484,17 +4484,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>1:14:21</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -4509,17 +4509,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>1:14:21</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C163" s="3" t="inlineStr">
-        <is>
-          <t>1:12:46</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
+        <is>
+          <t>0:56:50</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4547,9 +4547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E163" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C164" s="4" t="inlineStr">
-        <is>
-          <t>0:56:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>1:12:46</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4572,9 +4572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4584,12 +4584,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>0:41:34</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>0:56:24</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C166" s="4" t="inlineStr">
-        <is>
-          <t>0:56:24</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>0:41:34</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4684,17 +4684,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>1:04:39</t>
+          <t>2:40:18</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E169" s="3" t="inlineStr">
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>2:40:18</t>
+          <t>1:04:39</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>0:55:51</t>
+          <t>0:55:22</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>0:55:22</t>
+          <t>0:55:51</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E177" headerRowCount="1">
-  <autoFilter ref="A1:E177"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E181" headerRowCount="1">
+  <autoFilter ref="A1:E181"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1:29:12</t>
+          <t>1:35:07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:35:07</t>
+          <t>1:29:12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>1:54:01</t>
+          <t>1:47:12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1:47:12</t>
+          <t>1:54:01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -759,22 +759,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>1:50:02</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:06:48</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -784,22 +784,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0:06:48</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>1:50:02</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -884,17 +884,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1:40:37</t>
+          <t>1:30:27</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1:30:27</t>
+          <t>1:34:13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -934,12 +934,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>1:34:13</t>
+          <t>1:40:37</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>1:29:47</t>
+          <t>1:38:45</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>1:38:45</t>
+          <t>1:29:47</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>1:24:11</t>
+          <t>2:00:05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>2:00:05</t>
+          <t>1:24:11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>1:02:01</t>
+          <t>1:54:10</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>1:54:10</t>
+          <t>1:02:01</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>2:47:24</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>0:27:40</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2097,9 +2097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2109,17 +2109,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>0:27:40</t>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>0:06:35</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>1:30:11</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2147,9 +2147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2159,17 +2159,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>0:44:40</t>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>1:30:11</t>
+          <t>2:47:24</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2234,17 +2234,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>1:40:32</t>
+          <t>3:18:45</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -2259,22 +2259,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>0:43:44</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>1:40:32</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2284,17 +2284,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>0:23:57</t>
+          <t>0:43:44</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -2309,22 +2309,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>3:18:45</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0:23:57</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>1:49:49</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>0:16:28</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2397,9 +2397,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>0:16:28</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>1:49:49</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2422,9 +2422,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>0:17:48</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>3:35:22</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2447,9 +2447,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>3:35:22</t>
+          <t>1:51:42</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>1:34:57</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>0:38:37</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2497,9 +2497,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E81" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>1:51:42</t>
+          <t>1:34:57</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:38:37</t>
+          <t>0:17:48</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>0:24:49</t>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>0:36:19</t>
+          <t>0:24:49</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>1:52:46</t>
+          <t>1:29:17</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>1:29:17</t>
+          <t>1:52:46</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>0:18:14</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>1:28:54</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3122,9 +3122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>1:28:54</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0:18:14</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3147,9 +3147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C115" s="4" t="inlineStr">
-        <is>
-          <t>0:51:07</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3347,9 +3347,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>1:36:15</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>0:51:07</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3372,9 +3372,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3459,17 +3459,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:12:06</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3484,17 +3484,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:12:06</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>1:31:47</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3547,9 +3547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3559,12 +3559,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>0:24:06</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>1:31:47</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3572,9 +3572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3584,22 +3584,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>1:02:15</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>0:24:06</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E125" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>0:45:33</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>1:02:15</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3684,17 +3684,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>1:44:20</t>
+          <t>2:10:10</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -3709,22 +3709,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>0:26:24</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>1:54:51</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3734,17 +3734,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>2:10:10</t>
+          <t>1:44:20</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -3759,22 +3759,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t>1:54:51</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E132" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>1:10:25</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,9 +3897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>0:09:56</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>1:10:25</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3922,9 +3922,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E138" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4084,12 +4084,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>1:54:37</t>
+          <t>1:02:02</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>1:02:02</t>
+          <t>1:54:37</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>0:16:23</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>1:12:37</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4297,9 +4297,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C154" s="3" t="inlineStr">
-        <is>
-          <t>1:39:42</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>0:16:23</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4322,9 +4322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E154" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>1:12:37</t>
+          <t>1:39:42</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>0:42:58</t>
+          <t>0:41:47</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>0:41:47</t>
+          <t>0:42:58</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4484,17 +4484,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>1:14:21</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -4509,17 +4509,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>1:14:21</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C163" s="4" t="inlineStr">
-        <is>
-          <t>0:56:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>1:12:46</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4547,9 +4547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C164" s="3" t="inlineStr">
-        <is>
-          <t>1:12:46</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>0:56:50</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4572,9 +4572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E164" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>0:50:13</t>
+          <t>0:55:22</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>0:55:22</t>
+          <t>0:55:51</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>0:55:51</t>
+          <t>0:50:13</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4898,6 +4898,106 @@
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>1:09:21</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C179" s="4" t="inlineStr">
+        <is>
+          <t>0:56:53</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C180" s="4" t="inlineStr">
+        <is>
+          <t>0:58:17</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>0:57:50</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4955,7 +5055,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 5, Strand 7</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E181" headerRowCount="1">
-  <autoFilter ref="A1:E181"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E183" headerRowCount="1">
+  <autoFilter ref="A1:E183"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1:35:07</t>
+          <t>1:29:12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:29:12</t>
+          <t>1:35:07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1:16:39</t>
+          <t>1:54:01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>1:47:12</t>
+          <t>1:16:39</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1:54:01</t>
+          <t>1:47:12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -759,22 +759,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0:06:48</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>1:50:02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -784,22 +784,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>1:50:02</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0:06:48</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1:34:13</t>
+          <t>1:40:37</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -934,12 +934,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>1:40:37</t>
+          <t>1:34:13</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1009,22 +1009,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0:11:24</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>1:50:47</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1034,22 +1034,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>1:50:47</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0:11:24</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>1:37:51</t>
+          <t>1:26:07</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>1:26:07</t>
+          <t>1:37:51</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>2:00:05</t>
+          <t>1:24:11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>1:24:11</t>
+          <t>2:00:05</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>1:54:10</t>
+          <t>1:02:01</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>1:02:01</t>
+          <t>1:54:10</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>0:27:40</t>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2109,17 +2109,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>0:44:40</t>
+          <t>0:27:40</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
@@ -2134,17 +2134,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>1:30:11</t>
+          <t>1:26:12</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>0:06:35</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>2:47:24</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2172,9 +2172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2184,22 +2184,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>2:47:24</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>1:26:12</t>
+          <t>1:30:11</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -2234,17 +2234,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>3:18:45</t>
+          <t>1:40:32</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -2259,12 +2259,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>1:40:32</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0:23:57</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2272,9 +2272,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0:23:57</t>
+          <t>0:41:13</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2334,22 +2334,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>0:41:13</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>3:18:45</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>3:35:22</t>
+          <t>1:34:57</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>1:51:42</t>
+          <t>3:35:22</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>0:38:37</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>2:59:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2497,9 +2497,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>1:34:57</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2522,9 +2522,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>0:17:48</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>1:51:42</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2547,9 +2547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="inlineStr">
-        <is>
-          <t>2:59:00</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>0:38:37</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2572,9 +2572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E84" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>2:54:06</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:24:49</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2672,9 +2672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>0:36:19</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2697,9 +2697,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>0:24:49</t>
+          <t>0:00:03</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:00:03</t>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>1:29:17</t>
+          <t>1:52:46</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>1:52:46</t>
+          <t>1:29:17</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>1:16:58</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2847,9 +2847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2859,12 +2859,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:08:44</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2884,12 +2884,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>0:08:44</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>1:16:58</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2897,9 +2897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2934,12 +2934,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>1:26:43</t>
+          <t>1:35:44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>1:35:44</t>
+          <t>1:26:43</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>1:28:54</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>0:18:14</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3122,9 +3122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>0:18:14</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>1:28:54</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3147,9 +3147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>0:23:04</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>3:08:31</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3172,9 +3172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>1:24:32</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3197,9 +3197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E109" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>3:08:31</t>
+          <t>1:24:32</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>1:07:48</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>0:51:07</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3322,9 +3322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>1:36:15</t>
+          <t>1:07:48</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3359,12 +3359,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C116" s="4" t="inlineStr">
-        <is>
-          <t>0:51:07</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3372,9 +3372,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3459,17 +3459,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:12:06</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3484,17 +3484,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:12:06</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>0:45:33</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>1:31:47</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3547,9 +3547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3559,17 +3559,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>1:31:47</t>
+          <t>1:02:15</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
@@ -3609,22 +3609,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>1:02:15</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>0:45:45</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3634,12 +3634,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>0:45:45</t>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>2:10:10</t>
+          <t>1:44:20</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr">
@@ -3709,22 +3709,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t>1:54:51</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E130" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3734,17 +3734,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>1:44:20</t>
+          <t>1:01:10</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>0:26:24</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>2:10:10</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3772,9 +3772,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3784,17 +3784,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>1:01:10</t>
+          <t>1:54:51</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>0:09:56</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>1:10:25</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,9 +3897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>1:10:25</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>0:13:13</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3922,9 +3922,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>0:13:13</t>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>1:02:02</t>
+          <t>1:54:37</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>1:54:37</t>
+          <t>1:02:02</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>5:06:45</t>
+          <t>1:09:01</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -4184,17 +4184,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>1:09:01</t>
+          <t>5:06:45</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>0:10:35</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>1:42:25</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4234,22 +4234,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="inlineStr">
-        <is>
-          <t>1:42:25</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E151" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:31:32</t>
+          <t>0:10:35</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>1:12:37</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>0:16:23</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4297,9 +4297,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E153" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>0:16:23</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>1:39:42</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4322,9 +4322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E154" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>1:39:42</t>
+          <t>1:12:37</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4409,22 +4409,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>0:41:47</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>1:40:46</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>0:42:58</t>
+          <t>0:41:47</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4459,22 +4459,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C160" s="3" t="inlineStr">
-        <is>
-          <t>1:40:46</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>0:42:58</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E160" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4484,17 +4484,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>1:14:21</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -4509,17 +4509,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>1:14:21</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C163" s="3" t="inlineStr">
-        <is>
-          <t>1:12:46</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
+        <is>
+          <t>0:56:50</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4547,9 +4547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E163" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C164" s="4" t="inlineStr">
-        <is>
-          <t>0:56:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>1:12:46</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4572,9 +4572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4634,12 +4634,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C167" s="3" t="inlineStr">
-        <is>
-          <t>1:06:15</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>0:49:17</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4647,9 +4647,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E167" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4659,12 +4659,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>0:49:17</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>1:06:15</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4672,9 +4672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4684,17 +4684,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>2:40:18</t>
+          <t>1:04:39</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E169" s="3" t="inlineStr">
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>1:04:39</t>
+          <t>2:40:18</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E170" s="3" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>0:55:22</t>
+          <t>0:55:51</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>0:55:51</t>
+          <t>0:55:22</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>0:58:17</t>
+          <t>0:57:50</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4984,20 +4984,70 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C181" s="4" t="inlineStr">
+        <is>
+          <t>0:58:17</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>0:31:05</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C181" s="4" t="inlineStr">
-        <is>
-          <t>0:57:50</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>0:39:40</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1:29:12</t>
+          <t>1:35:07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:35:07</t>
+          <t>1:29:12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1:54:01</t>
+          <t>1:16:39</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>1:16:39</t>
+          <t>1:54:01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -759,22 +759,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>1:50:02</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:06:48</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -784,22 +784,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0:06:48</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>1:50:02</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -884,17 +884,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1:30:27</t>
+          <t>1:40:37</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1:40:37</t>
+          <t>1:30:27</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1009,22 +1009,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>1:50:47</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0:11:24</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1034,22 +1034,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0:11:24</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1:50:47</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1084,17 +1084,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>1:29:09</t>
+          <t>1:02:36</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>1:02:36</t>
+          <t>1:29:09</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>1:26:07</t>
+          <t>1:37:51</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>1:37:51</t>
+          <t>1:26:07</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>1:38:45</t>
+          <t>1:29:47</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>1:29:47</t>
+          <t>1:38:45</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>1:08:23</t>
+          <t>1:41:15</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>1:41:15</t>
+          <t>1:08:23</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>0:06:35</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>2:47:24</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2097,9 +2097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>1:26:12</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2147,9 +2147,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>2:47:24</t>
+          <t>1:30:11</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>0:44:40</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1:26:12</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2197,9 +2197,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>1:30:11</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2222,9 +2222,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2259,22 +2259,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>0:23:57</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>3:18:45</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2284,17 +2284,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>0:43:44</t>
+          <t>0:41:13</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0:41:13</t>
+          <t>0:43:44</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
@@ -2334,22 +2334,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>3:18:45</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>0:23:57</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>0:16:28</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>1:49:49</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2397,9 +2397,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>1:49:49</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0:16:28</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2422,9 +2422,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>1:34:57</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2447,9 +2447,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E79" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>2:59:00</t>
+          <t>1:34:57</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>0:17:48</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>1:51:42</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2522,9 +2522,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>1:51:42</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:38:37</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2547,9 +2547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>0:38:37</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>2:59:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2572,9 +2572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>0:24:49</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2672,9 +2672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>2:54:06</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>0:24:49</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2697,9 +2697,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>0:00:03</t>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:36:19</t>
+          <t>0:00:03</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>1:52:46</t>
+          <t>1:29:17</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>1:29:17</t>
+          <t>1:52:46</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>0:01:38</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>1:16:58</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2847,9 +2847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E95" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2884,12 +2884,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>1:16:58</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2897,9 +2897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E97" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2934,12 +2934,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>1:35:44</t>
+          <t>1:26:43</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>1:26:43</t>
+          <t>1:35:44</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3159,12 +3159,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>3:08:31</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3172,9 +3172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>0:23:04</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>1:24:32</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3197,9 +3197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>1:24:32</t>
+          <t>3:08:31</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C114" s="4" t="inlineStr">
-        <is>
-          <t>0:51:07</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>1:07:48</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3322,9 +3322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>1:07:48</t>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3359,12 +3359,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>1:36:15</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>0:51:07</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3372,9 +3372,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3384,12 +3384,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>1:12:47</t>
+          <t>1:18:54</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>1:18:54</t>
+          <t>1:12:47</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3559,22 +3559,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>1:02:15</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3584,12 +3584,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>0:24:06</t>
+          <t>0:45:45</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>0:45:45</t>
+          <t>0:24:06</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>0:45:33</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>1:02:15</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>0:26:24</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>2:10:10</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3722,9 +3722,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3734,17 +3734,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>1:01:10</t>
+          <t>1:54:51</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>2:10:10</t>
+          <t>1:01:10</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3784,22 +3784,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t>1:54:51</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E133" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>1:10:25</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,9 +3897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>0:09:56</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>1:10:25</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3947,9 +3947,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4084,12 +4084,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>1:54:37</t>
+          <t>1:02:02</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>1:02:02</t>
+          <t>1:54:37</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>1:09:01</t>
+          <t>5:06:45</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -4184,17 +4184,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>5:06:45</t>
+          <t>1:09:01</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C150" s="3" t="inlineStr">
-        <is>
-          <t>1:42:25</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>0:10:35</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E150" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4234,22 +4234,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>0:31:32</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>1:42:25</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>0:10:35</t>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>1:39:42</t>
+          <t>1:12:37</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>1:12:37</t>
+          <t>1:39:42</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4409,22 +4409,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>1:40:46</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>0:42:58</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E158" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4459,22 +4459,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>0:42:58</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>1:40:46</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4484,17 +4484,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>1:14:21</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -4509,17 +4509,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>1:14:21</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -4634,12 +4634,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>0:49:17</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>1:06:15</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4647,9 +4647,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4659,12 +4659,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C168" s="3" t="inlineStr">
-        <is>
-          <t>1:06:15</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>0:49:17</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4672,9 +4672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E168" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4684,22 +4684,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C169" s="3" t="inlineStr">
-        <is>
-          <t>1:04:39</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E169" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4734,22 +4734,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>0:45:37</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>1:04:39</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>0:55:51</t>
+          <t>0:50:13</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>0:50:13</t>
+          <t>0:55:51</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4934,12 +4934,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>0:56:53</t>
+          <t>0:57:50</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>0:57:50</t>
+          <t>0:56:53</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5009,12 +5009,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>0:31:05</t>
+          <t>0:39:40</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>0:39:40</t>
+          <t>0:31:05</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E183" headerRowCount="1">
-  <autoFilter ref="A1:E183"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E191" headerRowCount="1">
+  <autoFilter ref="A1:E191"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C23" headerRowCount="1">
-  <autoFilter ref="A1:C23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C24" headerRowCount="1">
+  <autoFilter ref="A1:C24"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,12 +884,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1:40:37</t>
+          <t>1:34:13</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -934,12 +934,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>1:34:13</t>
+          <t>1:40:37</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1084,17 +1084,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>1:02:36</t>
+          <t>1:29:09</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>1:29:09</t>
+          <t>1:02:36</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>1:29:40</t>
+          <t>1:42:41</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>1:42:41</t>
+          <t>1:29:40</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>1:29:47</t>
+          <t>1:38:45</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>1:38:45</t>
+          <t>1:29:47</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>1:36:51</t>
+          <t>1:29:25</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>1:29:25</t>
+          <t>1:36:51</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>1:35:26</t>
+          <t>1:50:48</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>1:50:48</t>
+          <t>1:35:26</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>1:45:58</t>
+          <t>1:18:57</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>1:18:57</t>
+          <t>1:45:58</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>1:02:01</t>
+          <t>1:54:10</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>1:54:10</t>
+          <t>1:02:01</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>2:47:24</t>
+          <t>1:30:11</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2134,17 +2134,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>0:44:40</t>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>1:30:11</t>
+          <t>2:47:24</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>1:26:12</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2197,9 +2197,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>0:06:35</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>1:26:12</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>1:40:32</t>
+          <t>3:18:45</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -2259,17 +2259,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>3:18:45</t>
+          <t>1:40:32</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -2284,17 +2284,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>0:41:13</t>
+          <t>0:43:44</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0:43:44</t>
+          <t>0:41:13</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>1:49:49</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>0:16:28</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2397,9 +2397,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>0:16:28</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>1:49:49</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2422,9 +2422,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>0:17:48</t>
+          <t>0:38:37</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>1:51:42</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2522,9 +2522,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>0:38:37</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>1:51:42</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2547,9 +2547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>0:23:04</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>1:24:32</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3172,9 +3172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>1:24:32</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3197,9 +3197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E109" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>1:07:48</t>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>1:36:15</t>
+          <t>1:07:48</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3459,17 +3459,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:12:06</t>
+          <t>0:13:28</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3484,17 +3484,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:12:06</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>1:31:47</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3547,9 +3547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3559,12 +3559,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>0:45:33</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>1:31:47</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3572,9 +3572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3584,12 +3584,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>0:45:45</t>
+          <t>0:24:06</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>0:24:06</t>
+          <t>0:45:45</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>1:44:20</t>
+          <t>1:54:51</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>2:10:10</t>
+          <t>1:44:20</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -3734,17 +3734,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>1:54:51</t>
+          <t>2:10:10</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E131" s="3" t="inlineStr">
@@ -4034,12 +4034,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C143" s="4" t="inlineStr">
-        <is>
-          <t>0:51:47</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>0:45:51</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>0:45:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>0:51:47</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>1:02:02</t>
+          <t>1:54:37</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>1:54:37</t>
+          <t>1:02:02</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4134,17 +4134,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>2:24:32</t>
+          <t>5:06:45</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>5:06:45</t>
+          <t>2:24:32</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>0:16:23</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>1:12:37</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4297,9 +4297,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C154" s="3" t="inlineStr">
-        <is>
-          <t>1:12:37</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>0:16:23</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4322,9 +4322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E154" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4409,12 +4409,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>0:42:58</t>
+          <t>0:41:47</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>0:41:47</t>
+          <t>0:42:58</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C165" s="4" t="inlineStr">
-        <is>
-          <t>0:56:24</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>0:41:34</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>0:41:34</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>0:56:24</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4684,12 +4684,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>0:45:37</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>2:40:18</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4697,9 +4697,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E169" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4709,12 +4709,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C170" s="3" t="inlineStr">
-        <is>
-          <t>2:40:18</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4722,9 +4722,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E170" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>0:50:13</t>
+          <t>0:55:22</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>0:55:22</t>
+          <t>0:55:51</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>0:55:51</t>
+          <t>0:50:13</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4934,12 +4934,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>0:57:50</t>
+          <t>0:56:53</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>0:56:53</t>
+          <t>0:57:50</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5009,12 +5009,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>0:39:40</t>
+          <t>0:31:05</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5034,22 +5034,222 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>0:39:40</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>1:03:09</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>0:49:41</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C186" s="4" t="inlineStr">
+        <is>
+          <t>0:51:11</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>1:15:20</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>1:13:06</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>1:16:57</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E189" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>Strand 4</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>0:31:05</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>1:42:01</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>1:48:06</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E191" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5067,7 +5267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5100,29 +5300,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-31-25 to 06-06-25</t>
+          <t>06-07-25 to 06-13-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-24-25 to 05-30-25</t>
+          <t>05-31-25 to 06-06-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -5134,24 +5334,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05-17-25 to 05-23-25</t>
+          <t>05-24-25 to 05-30-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-10-25 to 05-16-25</t>
+          <t>05-17-25 to 05-23-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5168,29 +5368,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-03-25 to 05-09-25</t>
+          <t>05-10-25 to 05-16-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 3, Strand 5, Strand 6</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-26-25 to 05-02-25</t>
+          <t>05-03-25 to 05-09-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 3, Strand 5, Strand 6</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -5202,12 +5402,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-19-25 to 04-25-25</t>
+          <t>04-26-25 to 05-02-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -5219,12 +5419,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-12-25 to 04-18-25</t>
+          <t>04-19-25 to 04-25-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -5236,12 +5436,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-05-25 to 04-11-25</t>
+          <t>04-12-25 to 04-18-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -5253,12 +5453,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-29-25 to 04-04-25</t>
+          <t>04-05-25 to 04-11-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -5270,12 +5470,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-22-25 to 03-28-25</t>
+          <t>03-29-25 to 04-04-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -5287,46 +5487,46 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-15-25 to 03-21-25</t>
+          <t>03-22-25 to 03-28-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-08-25 to 03-14-25</t>
+          <t>03-15-25 to 03-21-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-01-25 to 03-07-25</t>
+          <t>03-08-25 to 03-14-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -5338,12 +5538,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>02-22-25 to 02-28-25</t>
+          <t>03-01-25 to 03-07-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 4, Strand 5, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -5355,12 +5555,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02-15-25 to 02-21-25</t>
+          <t>02-22-25 to 02-28-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 2, Strand 4, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -5372,12 +5572,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>02-08-25 to 02-14-25</t>
+          <t>02-15-25 to 02-21-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -5389,7 +5589,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02-01-25 to 02-07-25</t>
+          <t>02-08-25 to 02-14-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5406,46 +5606,46 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01-25-25 to 01-31-25</t>
+          <t>02-01-25 to 02-07-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01-18-25 to 01-24-25</t>
+          <t>01-25-25 to 01-31-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01-11-25 to 01-17-25</t>
+          <t>01-18-25 to 01-24-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -5457,15 +5657,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>01-11-25 to 01-17-25</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>01-04-25 to 01-10-25</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Strand 6, Strand 8</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E191" headerRowCount="1">
-  <autoFilter ref="A1:E191"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E193" headerRowCount="1">
+  <autoFilter ref="A1:E193"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,12 +684,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>1:54:01</t>
+          <t>1:47:12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1:47:12</t>
+          <t>1:54:01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -759,22 +759,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0:06:48</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>1:50:02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -784,22 +784,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>1:50:02</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0:06:48</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>1:06:08</t>
+          <t>1:39:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1:39:45</t>
+          <t>1:06:08</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1:30:27</t>
+          <t>1:40:37</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>1:40:37</t>
+          <t>1:30:27</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1009,22 +1009,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0:11:24</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>1:50:47</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1034,22 +1034,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>1:50:47</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0:11:24</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1259,12 +1259,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>0:01:46</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>1:40:49</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1272,9 +1272,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>1:40:49</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1297,9 +1297,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1634,17 +1634,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>1:24:11</t>
+          <t>2:00:05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>2:00:05</t>
+          <t>1:24:11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>1:30:11</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2097,9 +2097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>0:27:40</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>1:30:11</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2122,9 +2122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>0:06:35</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>2:47:24</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2147,9 +2147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2159,17 +2159,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>2:47:24</t>
+          <t>1:26:12</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -2184,17 +2184,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>0:44:40</t>
+          <t>0:27:40</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>1:26:12</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2222,9 +2222,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2234,12 +2234,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>3:18:45</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0:43:44</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2247,9 +2247,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2259,17 +2259,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>1:40:32</t>
+          <t>3:18:45</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -2284,17 +2284,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>0:43:44</t>
+          <t>0:41:13</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>0:41:13</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>1:40:32</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2322,9 +2322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>3:35:22</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2472,9 +2472,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2484,12 +2484,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>1:34:57</t>
+          <t>2:59:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>0:17:48</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>3:35:22</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2522,9 +2522,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>2:59:00</t>
+          <t>1:34:57</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>2:54:06</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2672,9 +2672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>0:24:49</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2697,9 +2697,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:00:03</t>
+          <t>0:24:49</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>1:29:17</t>
+          <t>1:52:46</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>1:52:46</t>
+          <t>1:29:17</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2934,12 +2934,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>1:26:43</t>
+          <t>1:35:44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>1:35:44</t>
+          <t>1:26:43</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>0:23:04</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>3:08:31</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3197,9 +3197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>3:08:31</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3222,9 +3222,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>1:36:15</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>0:51:07</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3322,9 +3322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>1:07:48</t>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3359,12 +3359,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C116" s="4" t="inlineStr">
-        <is>
-          <t>0:51:07</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>1:07:48</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3372,9 +3372,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3534,12 +3534,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>0:45:33</t>
+          <t>0:24:06</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3559,12 +3559,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>1:31:47</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3572,9 +3572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3584,12 +3584,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>0:24:06</t>
+          <t>0:45:45</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>0:45:45</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>1:31:47</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3622,9 +3622,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>1:44:20</t>
+          <t>1:01:10</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>1:01:10</t>
+          <t>1:44:20</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -3809,12 +3809,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>0:06:19</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>1:28:06</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3822,9 +3822,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t>1:28:06</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>0:06:19</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3847,9 +3847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E135" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>0:09:56</t>
+          <t>0:13:13</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>0:13:13</t>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>2:24:32</t>
+          <t>1:09:01</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4184,12 +4184,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>1:09:01</t>
+          <t>2:24:32</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>0:41:47</t>
+          <t>0:42:58</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4434,12 +4434,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>0:42:58</t>
+          <t>0:41:47</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4484,17 +4484,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>1:14:21</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -4509,17 +4509,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>1:14:21</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C163" s="4" t="inlineStr">
-        <is>
-          <t>0:56:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>1:12:46</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4547,9 +4547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C164" s="3" t="inlineStr">
-        <is>
-          <t>1:12:46</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>0:56:50</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4572,9 +4572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E164" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>0:55:22</t>
+          <t>0:50:13</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>0:55:51</t>
+          <t>0:55:22</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>0:50:13</t>
+          <t>0:55:51</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C175" s="4" t="inlineStr">
-        <is>
-          <t>0:56:29</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>1:48:40</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4847,9 +4847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4859,12 +4859,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C176" s="3" t="inlineStr">
-        <is>
-          <t>1:48:40</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C176" s="4" t="inlineStr">
+        <is>
+          <t>0:56:29</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4872,9 +4872,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E176" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>0:56:53</t>
+          <t>0:57:50</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>0:57:50</t>
+          <t>0:56:53</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5009,12 +5009,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>0:31:05</t>
+          <t>0:39:40</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>0:39:40</t>
+          <t>0:31:05</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5084,12 +5084,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>0:49:41</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C185" s="4" t="inlineStr">
+        <is>
+          <t>0:51:11</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5109,12 +5109,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C186" s="4" t="inlineStr">
-        <is>
-          <t>0:51:11</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>0:49:41</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5209,12 +5209,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>1:42:01</t>
+          <t>1:48:06</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>1:48:06</t>
+          <t>1:42:01</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5250,6 +5250,56 @@
       <c r="E191" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>0:43:19</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>0:42:38</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1:35:07</t>
+          <t>1:29:12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:29:12</t>
+          <t>1:35:07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>1:47:12</t>
+          <t>1:54:01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1:54:01</t>
+          <t>1:47:12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1:34:13</t>
+          <t>1:30:27</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1:40:37</t>
+          <t>1:34:13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>1:30:27</t>
+          <t>1:40:37</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>1:37:51</t>
+          <t>1:26:07</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>1:26:07</t>
+          <t>1:37:51</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>1:42:41</t>
+          <t>1:29:40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>1:29:40</t>
+          <t>1:42:41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>1:29:25</t>
+          <t>1:36:51</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>1:36:51</t>
+          <t>1:29:25</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>1:50:48</t>
+          <t>1:35:26</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>1:35:26</t>
+          <t>1:50:48</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>2:00:05</t>
+          <t>1:24:11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>1:24:11</t>
+          <t>2:00:05</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>1:41:15</t>
+          <t>1:08:23</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>1:08:23</t>
+          <t>1:41:15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>1:18:57</t>
+          <t>1:45:58</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>1:45:58</t>
+          <t>1:18:57</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>0:06:35</t>
+          <t>0:27:40</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>1:30:11</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2122,9 +2122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>2:47:24</t>
+          <t>1:30:11</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>0:27:40</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>2:47:24</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2197,9 +2197,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2234,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>0:43:44</t>
+          <t>0:23:57</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
@@ -2259,12 +2259,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>3:18:45</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0:43:44</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2272,9 +2272,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2284,22 +2284,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>0:41:13</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>3:18:45</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>1:40:32</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0:41:13</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2322,9 +2322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>0:23:57</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>1:40:32</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2347,9 +2347,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>0:38:37</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>3:35:22</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2447,9 +2447,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>0:17:48</t>
+          <t>0:38:37</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>3:35:22</t>
+          <t>1:34:57</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>1:51:42</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2547,9 +2547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>1:34:57</t>
+          <t>1:51:42</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>0:00:03</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2672,9 +2672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2684,12 +2684,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>2:54:06</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2697,9 +2697,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>0:36:19</t>
+          <t>0:24:49</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:24:49</t>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>1:16:58</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2847,9 +2847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2884,12 +2884,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>0:01:38</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>1:16:58</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2897,9 +2897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>1:31:53</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0:28:16</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2997,9 +2997,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E101" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C102" s="2" t="inlineStr">
-        <is>
-          <t>0:28:16</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>1:31:53</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3022,9 +3022,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C114" s="4" t="inlineStr">
-        <is>
-          <t>0:51:07</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>1:07:48</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3322,9 +3322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3334,12 +3334,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>1:36:15</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>0:51:07</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3347,9 +3347,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E115" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>1:07:48</t>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>1:18:54</t>
+          <t>1:12:47</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>1:12:47</t>
+          <t>1:18:54</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3534,22 +3534,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>0:24:06</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>1:02:15</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3559,12 +3559,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>0:45:33</t>
+          <t>0:24:06</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>0:45:45</t>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>1:31:47</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>0:45:45</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3622,9 +3622,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3634,17 +3634,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>1:02:15</t>
+          <t>1:31:47</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
@@ -3684,22 +3684,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="inlineStr">
-        <is>
-          <t>1:54:51</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E129" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3709,17 +3709,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>1:01:10</t>
+          <t>1:54:51</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>2:10:10</t>
+          <t>1:01:10</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>0:26:24</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>2:10:10</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3797,9 +3797,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>0:13:13</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>1:10:25</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,9 +3897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>0:09:56</t>
+          <t>0:13:13</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr">
-        <is>
-          <t>1:10:25</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3947,9 +3947,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4034,12 +4034,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>0:45:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>0:51:47</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C144" s="4" t="inlineStr">
-        <is>
-          <t>0:51:47</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>0:45:51</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4134,17 +4134,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>5:06:45</t>
+          <t>2:24:32</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>1:09:01</t>
+          <t>5:06:45</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -4184,12 +4184,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>2:24:32</t>
+          <t>1:09:01</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4234,22 +4234,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="inlineStr">
-        <is>
-          <t>1:42:25</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E151" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4259,22 +4259,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>0:31:32</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>1:42:25</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>1:12:37</t>
+          <t>1:39:42</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>0:16:23</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>1:12:37</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4322,9 +4322,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E154" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>1:39:42</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>0:16:23</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4347,9 +4347,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E155" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E155" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4409,12 +4409,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>0:42:58</t>
+          <t>0:41:47</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4434,22 +4434,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t>0:41:47</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>1:40:46</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4459,22 +4459,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C160" s="3" t="inlineStr">
-        <is>
-          <t>1:40:46</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>0:42:58</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E160" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C163" s="3" t="inlineStr">
-        <is>
-          <t>1:12:46</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
+        <is>
+          <t>0:56:50</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4547,9 +4547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E163" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C164" s="4" t="inlineStr">
-        <is>
-          <t>0:56:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>1:12:46</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4572,9 +4572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4584,12 +4584,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>0:41:34</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>0:56:24</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C166" s="4" t="inlineStr">
-        <is>
-          <t>0:56:24</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>0:41:34</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4634,12 +4634,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C167" s="3" t="inlineStr">
-        <is>
-          <t>1:06:15</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>0:49:17</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4647,9 +4647,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E167" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4659,12 +4659,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>0:49:17</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>1:06:15</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4672,9 +4672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4684,17 +4684,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>2:40:18</t>
+          <t>1:04:39</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E169" s="3" t="inlineStr">
@@ -4709,12 +4709,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>0:45:37</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
+        <is>
+          <t>2:40:18</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4722,9 +4722,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4734,22 +4734,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C171" s="3" t="inlineStr">
-        <is>
-          <t>1:04:39</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>0:45:37</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E171" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>0:50:13</t>
+          <t>0:55:22</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>0:55:22</t>
+          <t>0:55:51</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>0:55:51</t>
+          <t>0:50:13</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C175" s="3" t="inlineStr">
-        <is>
-          <t>1:48:40</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C175" s="4" t="inlineStr">
+        <is>
+          <t>0:56:29</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4847,9 +4847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E175" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4859,12 +4859,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C176" s="4" t="inlineStr">
-        <is>
-          <t>0:56:29</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>1:48:40</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4872,9 +4872,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E176" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>0:57:50</t>
+          <t>0:56:53</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>0:56:53</t>
+          <t>0:57:50</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5009,12 +5009,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>0:39:40</t>
+          <t>0:31:05</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>0:31:05</t>
+          <t>0:39:40</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5059,12 +5059,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C184" s="3" t="inlineStr">
-        <is>
-          <t>1:03:09</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>0:49:41</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5072,9 +5072,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E184" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5084,12 +5084,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C185" s="4" t="inlineStr">
-        <is>
-          <t>0:51:11</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>1:03:09</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5097,9 +5097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E185" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5109,12 +5109,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>0:49:41</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C186" s="4" t="inlineStr">
+        <is>
+          <t>0:51:11</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5159,12 +5159,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>1:13:06</t>
+          <t>1:16:57</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>1:16:57</t>
+          <t>1:13:06</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E193" headerRowCount="1">
-  <autoFilter ref="A1:E193"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E194" headerRowCount="1">
+  <autoFilter ref="A1:E194"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C24" headerRowCount="1">
-  <autoFilter ref="A1:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C25" headerRowCount="1">
+  <autoFilter ref="A1:C25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>1:29:12</t>
+          <t>1:35:07</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>1:35:07</t>
+          <t>1:29:12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1:16:39</t>
+          <t>1:47:12</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>1:54:01</t>
+          <t>1:16:39</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>1:47:12</t>
+          <t>1:54:01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -759,22 +759,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>1:50:02</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:06:48</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -784,22 +784,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0:06:48</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>1:50:02</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -884,17 +884,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1:30:27</t>
+          <t>1:34:13</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1:34:13</t>
+          <t>1:40:37</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>1:40:37</t>
+          <t>1:30:27</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1009,22 +1009,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>1:50:47</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0:11:24</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1034,22 +1034,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0:11:24</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1:50:47</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1184,12 +1184,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>1:29:40</t>
+          <t>1:42:41</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>1:42:41</t>
+          <t>1:29:40</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>1:36:51</t>
+          <t>1:29:25</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>1:29:25</t>
+          <t>1:36:51</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>1:35:26</t>
+          <t>1:50:48</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>1:50:48</t>
+          <t>1:35:26</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>1:24:11</t>
+          <t>2:00:05</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>2:00:05</t>
+          <t>1:24:11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>1:45:58</t>
+          <t>1:18:57</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>1:18:57</t>
+          <t>1:45:58</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2084,17 +2084,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>0:27:40</t>
+          <t>0:44:40</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -2109,12 +2109,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>0:06:35</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>1:30:11</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2122,9 +2122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>1:30:11</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2147,9 +2147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>0:44:40</t>
+          <t>0:27:40</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
@@ -2234,22 +2234,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>0:23:57</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>3:18:45</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2259,17 +2259,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>0:43:44</t>
+          <t>0:23:57</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
@@ -2284,12 +2284,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>3:18:45</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0:43:44</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2297,9 +2297,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>3:35:22</t>
+          <t>1:51:42</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>1:34:57</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2522,9 +2522,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>0:17:48</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>3:35:22</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2547,9 +2547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>1:51:42</t>
+          <t>1:34:57</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>2:54:06</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2672,9 +2672,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>0:24:49</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2722,9 +2722,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2734,12 +2734,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>0:36:19</t>
+          <t>0:24:49</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>1:52:46</t>
+          <t>1:29:17</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2784,12 +2784,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>1:29:17</t>
+          <t>1:52:46</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2934,12 +2934,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>1:35:44</t>
+          <t>1:26:43</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>1:26:43</t>
+          <t>1:35:44</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>0:18:14</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>1:28:54</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3122,9 +3122,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>1:28:54</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0:18:14</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3147,9 +3147,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>1:24:32</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3172,9 +3172,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>3:08:31</t>
+          <t>1:24:32</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>0:23:04</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>3:08:31</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3222,9 +3222,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3309,12 +3309,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>1:07:48</t>
+          <t>1:36:15</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3359,12 +3359,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>1:36:15</t>
+          <t>1:07:48</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3534,22 +3534,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>1:02:15</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3559,22 +3559,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>0:24:06</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>1:02:15</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3584,12 +3584,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>0:45:33</t>
+          <t>0:24:06</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>0:26:24</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>2:10:10</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3697,9 +3697,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t>1:01:10</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3747,9 +3747,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E131" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3759,17 +3759,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>1:44:20</t>
+          <t>1:01:10</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E132" s="3" t="inlineStr">
@@ -3784,17 +3784,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>2:10:10</t>
+          <t>1:44:20</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" s="3" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>1:10:25</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3897,9 +3897,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>0:13:13</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>1:10:25</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3922,9 +3922,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E138" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3934,12 +3934,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>0:09:56</t>
+          <t>0:13:13</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4034,12 +4034,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C143" s="4" t="inlineStr">
-        <is>
-          <t>0:51:47</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>0:45:51</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>0:45:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>0:51:47</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>1:54:37</t>
+          <t>1:02:02</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>1:02:02</t>
+          <t>1:54:37</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4134,17 +4134,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>2:24:32</t>
+          <t>5:06:45</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
@@ -4159,17 +4159,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>5:06:45</t>
+          <t>1:09:01</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
@@ -4184,12 +4184,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>1:09:01</t>
+          <t>2:24:32</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>0:10:35</t>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>0:31:32</t>
+          <t>0:10:35</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>1:39:42</t>
+          <t>1:12:37</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>1:12:37</t>
+          <t>1:39:42</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4409,22 +4409,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>0:41:47</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>1:40:46</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4434,22 +4434,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>1:40:46</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>0:42:58</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E159" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4459,12 +4459,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>0:42:58</t>
+          <t>0:41:47</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4484,17 +4484,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>1:14:21</t>
+          <t>2:01:42</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
@@ -4509,17 +4509,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>2:01:42</t>
+          <t>1:14:21</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C163" s="4" t="inlineStr">
-        <is>
-          <t>0:56:50</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>1:12:46</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4547,9 +4547,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C164" s="3" t="inlineStr">
-        <is>
-          <t>1:12:46</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>0:56:50</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4572,9 +4572,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E164" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4584,12 +4584,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C165" s="4" t="inlineStr">
-        <is>
-          <t>0:56:24</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>0:41:34</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>0:41:34</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C166" s="4" t="inlineStr">
+        <is>
+          <t>0:56:24</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>0:55:22</t>
+          <t>0:50:13</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4784,12 +4784,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>0:55:51</t>
+          <t>0:55:22</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>0:50:13</t>
+          <t>0:55:51</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C175" s="4" t="inlineStr">
-        <is>
-          <t>0:56:29</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>1:48:40</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4847,9 +4847,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4859,12 +4859,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C176" s="3" t="inlineStr">
-        <is>
-          <t>1:48:40</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C176" s="4" t="inlineStr">
+        <is>
+          <t>0:56:29</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4872,9 +4872,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E176" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>0:56:53</t>
+          <t>0:58:17</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>0:58:17</t>
+          <t>0:56:53</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5009,12 +5009,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>0:31:05</t>
+          <t>0:39:40</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>0:39:40</t>
+          <t>0:31:05</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5059,12 +5059,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>0:49:41</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>1:03:09</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5072,9 +5072,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -5084,12 +5084,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C185" s="3" t="inlineStr">
-        <is>
-          <t>1:03:09</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C185" s="4" t="inlineStr">
+        <is>
+          <t>0:51:11</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5097,9 +5097,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E185" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -5109,12 +5109,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C186" s="4" t="inlineStr">
-        <is>
-          <t>0:51:11</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>0:49:41</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5159,12 +5159,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>1:16:57</t>
+          <t>1:13:06</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>1:13:06</t>
+          <t>1:16:57</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>0:43:19</t>
+          <t>0:42:38</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5284,12 +5284,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>0:42:38</t>
+          <t>0:43:19</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5298,6 +5298,31 @@
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>0:15:04</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5317,7 +5342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5350,46 +5375,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-07-25 to 06-13-25</t>
+          <t>06-14-25 to 06-20-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-31-25 to 06-06-25</t>
+          <t>06-07-25 to 06-13-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05-24-25 to 05-30-25</t>
+          <t>05-31-25 to 06-06-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -5401,24 +5426,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-17-25 to 05-23-25</t>
+          <t>05-24-25 to 05-30-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-10-25 to 05-16-25</t>
+          <t>05-17-25 to 05-23-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5435,29 +5460,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05-03-25 to 05-09-25</t>
+          <t>05-10-25 to 05-16-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 3, Strand 5, Strand 6</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-26-25 to 05-02-25</t>
+          <t>05-03-25 to 05-09-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 3, Strand 5, Strand 6</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -5469,12 +5494,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-19-25 to 04-25-25</t>
+          <t>04-26-25 to 05-02-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -5486,12 +5511,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-12-25 to 04-18-25</t>
+          <t>04-19-25 to 04-25-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -5503,12 +5528,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-05-25 to 04-11-25</t>
+          <t>04-12-25 to 04-18-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -5520,12 +5545,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-29-25 to 04-04-25</t>
+          <t>04-05-25 to 04-11-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -5537,12 +5562,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-22-25 to 03-28-25</t>
+          <t>03-29-25 to 04-04-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -5554,46 +5579,46 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-15-25 to 03-21-25</t>
+          <t>03-22-25 to 03-28-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-08-25 to 03-14-25</t>
+          <t>03-15-25 to 03-21-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-01-25 to 03-07-25</t>
+          <t>03-08-25 to 03-14-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -5605,12 +5630,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02-22-25 to 02-28-25</t>
+          <t>03-01-25 to 03-07-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 4, Strand 5, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -5622,12 +5647,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>02-15-25 to 02-21-25</t>
+          <t>02-22-25 to 02-28-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 2, Strand 4, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -5639,12 +5664,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02-08-25 to 02-14-25</t>
+          <t>02-15-25 to 02-21-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -5656,7 +5681,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>02-01-25 to 02-07-25</t>
+          <t>02-08-25 to 02-14-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5673,46 +5698,46 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01-25-25 to 01-31-25</t>
+          <t>02-01-25 to 02-07-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01-18-25 to 01-24-25</t>
+          <t>01-25-25 to 01-31-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01-11-25 to 01-17-25</t>
+          <t>01-18-25 to 01-24-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -5724,15 +5749,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>01-11-25 to 01-17-25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>01-04-25 to 01-10-25</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Strand 6, Strand 8</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Indy.xlsx
+++ b/data/Sorter Inspection Validation Indy.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -5323,6 +5323,4831 @@
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>0:27:04</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>1:40:44</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E196" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>1:13:17</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>1:35:07</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>1:29:12</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>0:40:59</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>1:16:39</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
+        <is>
+          <t>1:54:01</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>1:47:12</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>1:23:47</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>0:06:48</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C206" s="3" t="inlineStr">
+        <is>
+          <t>1:50:02</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>1:24:24</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E207" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>45675</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>1:39:45</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>45675</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
+        <is>
+          <t>1:06:08</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E209" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>1:40:37</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>1:34:13</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E211" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C212" s="3" t="inlineStr">
+        <is>
+          <t>1:30:27</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>1:02:00</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E213" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="inlineStr">
+        <is>
+          <t>1:43:07</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E214" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>1:50:47</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E215" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>0:11:24</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C217" s="3" t="inlineStr">
+        <is>
+          <t>1:27:23</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E217" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>1:02:36</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="inlineStr">
+        <is>
+          <t>1:29:09</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E219" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
+        <is>
+          <t>1:37:51</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
+        <is>
+          <t>1:26:07</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E221" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C222" s="3" t="inlineStr">
+        <is>
+          <t>1:42:41</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="inlineStr">
+        <is>
+          <t>1:29:40</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E223" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>1:37:57</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>1:40:49</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>0:01:46</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>1:54:59</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E227" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>1:42:33</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>1:41:52</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>1:29:47</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>1:38:45</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
+        <is>
+          <t>1:29:25</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>1:36:51</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E233" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
+        <is>
+          <t>1:38:23</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C235" s="3" t="inlineStr">
+        <is>
+          <t>1:43:30</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E235" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="inlineStr">
+        <is>
+          <t>1:26:57</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="inlineStr">
+        <is>
+          <t>1:42:55</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E237" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C238" s="3" t="inlineStr">
+        <is>
+          <t>1:50:48</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E238" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="inlineStr">
+        <is>
+          <t>1:35:26</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E239" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C240" s="3" t="inlineStr">
+        <is>
+          <t>1:24:11</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E240" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C241" s="3" t="inlineStr">
+        <is>
+          <t>2:00:05</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E241" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>45703</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C242" s="3" t="inlineStr">
+        <is>
+          <t>1:41:15</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>45703</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr">
+        <is>
+          <t>1:08:23</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E243" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="inlineStr">
+        <is>
+          <t>1:06:40</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="inlineStr">
+        <is>
+          <t>1:30:26</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E245" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C246" s="3" t="inlineStr">
+        <is>
+          <t>1:18:57</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="inlineStr">
+        <is>
+          <t>1:45:58</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E247" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>0:06:50</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="inlineStr">
+        <is>
+          <t>1:45:21</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E249" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>45711</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C250" s="3" t="inlineStr">
+        <is>
+          <t>1:18:24</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E250" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>0:04:36</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>1:54:10</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="inlineStr">
+        <is>
+          <t>1:02:01</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E253" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>45714</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C254" s="4" t="inlineStr">
+        <is>
+          <t>0:51:31</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>0:08:49</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="inlineStr">
+        <is>
+          <t>1:39:13</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E256" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>45718</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="inlineStr">
+        <is>
+          <t>1:43:27</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E257" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C258" s="3" t="inlineStr">
+        <is>
+          <t>2:47:24</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E258" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C259" s="3" t="inlineStr">
+        <is>
+          <t>1:30:11</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E259" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C260" s="3" t="inlineStr">
+        <is>
+          <t>1:26:12</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E260" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>0:27:40</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>0:06:35</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>0:44:40</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C264" s="3" t="inlineStr">
+        <is>
+          <t>3:18:45</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E264" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>0:41:13</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>0:43:44</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>0:23:57</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C268" s="3" t="inlineStr">
+        <is>
+          <t>1:40:32</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E268" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>0:13:06</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C270" s="3" t="inlineStr">
+        <is>
+          <t>1:49:49</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E270" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>0:16:28</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>0:17:48</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C273" s="2" t="inlineStr">
+        <is>
+          <t>0:38:37</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C274" s="3" t="inlineStr">
+        <is>
+          <t>2:59:00</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E274" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C275" s="3" t="inlineStr">
+        <is>
+          <t>3:35:22</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E275" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C276" s="3" t="inlineStr">
+        <is>
+          <t>1:34:57</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E276" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C277" s="3" t="inlineStr">
+        <is>
+          <t>1:51:42</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E277" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C278" s="3" t="inlineStr">
+        <is>
+          <t>1:38:43</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E278" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>45738</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C279" s="3" t="inlineStr">
+        <is>
+          <t>1:37:54</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E279" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>0:02:36</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C282" s="3" t="inlineStr">
+        <is>
+          <t>2:54:06</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E282" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C283" s="2" t="inlineStr">
+        <is>
+          <t>0:24:49</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C284" s="2" t="inlineStr">
+        <is>
+          <t>0:36:19</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C285" s="3" t="inlineStr">
+        <is>
+          <t>1:29:17</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E285" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C286" s="3" t="inlineStr">
+        <is>
+          <t>1:52:46</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E286" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>0:23:17</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C288" s="3" t="inlineStr">
+        <is>
+          <t>1:16:58</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E288" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C289" s="2" t="inlineStr">
+        <is>
+          <t>0:08:44</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>0:01:38</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C291" s="3" t="inlineStr">
+        <is>
+          <t>1:21:08</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E291" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C292" s="3" t="inlineStr">
+        <is>
+          <t>1:35:44</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E292" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C293" s="3" t="inlineStr">
+        <is>
+          <t>1:26:43</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E293" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C294" s="2" t="inlineStr">
+        <is>
+          <t>0:28:16</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C295" s="3" t="inlineStr">
+        <is>
+          <t>1:31:53</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E295" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C296" s="3" t="inlineStr">
+        <is>
+          <t>1:12:36</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E296" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C297" s="2" t="inlineStr">
+        <is>
+          <t>0:46:07</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C298" s="3" t="inlineStr">
+        <is>
+          <t>1:19:03</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E298" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C299" s="2" t="inlineStr">
+        <is>
+          <t>0:18:14</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C300" s="3" t="inlineStr">
+        <is>
+          <t>1:28:54</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E300" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C301" s="3" t="inlineStr">
+        <is>
+          <t>1:24:32</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E301" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C302" s="3" t="inlineStr">
+        <is>
+          <t>3:08:31</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E302" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C303" s="2" t="inlineStr">
+        <is>
+          <t>0:23:04</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C304" s="3" t="inlineStr">
+        <is>
+          <t>1:17:29</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E304" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C305" s="3" t="inlineStr">
+        <is>
+          <t>1:25:38</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E305" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C306" s="3" t="inlineStr">
+        <is>
+          <t>1:13:16</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E306" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C307" s="3" t="inlineStr">
+        <is>
+          <t>1:36:15</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E307" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C308" s="3" t="inlineStr">
+        <is>
+          <t>1:07:48</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E308" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C309" s="4" t="inlineStr">
+        <is>
+          <t>0:51:07</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C310" s="3" t="inlineStr">
+        <is>
+          <t>1:18:54</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E310" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C311" s="3" t="inlineStr">
+        <is>
+          <t>1:12:47</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E311" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C312" s="3" t="inlineStr">
+        <is>
+          <t>1:15:16</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E312" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C313" s="2" t="inlineStr">
+        <is>
+          <t>0:13:28</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C314" s="2" t="inlineStr">
+        <is>
+          <t>0:12:06</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C315" s="3" t="inlineStr">
+        <is>
+          <t>1:30:45</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E315" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="inlineStr">
+        <is>
+          <t>0:45:33</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C317" s="2" t="inlineStr">
+        <is>
+          <t>0:45:45</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>0:24:06</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C319" s="3" t="inlineStr">
+        <is>
+          <t>1:02:15</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E319" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C320" s="3" t="inlineStr">
+        <is>
+          <t>1:31:47</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E320" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C321" s="2" t="inlineStr">
+        <is>
+          <t>0:19:58</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C322" s="3" t="inlineStr">
+        <is>
+          <t>1:54:51</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E322" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C323" s="3" t="inlineStr">
+        <is>
+          <t>1:01:10</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E323" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C324" s="2" t="inlineStr">
+        <is>
+          <t>0:26:24</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C325" s="3" t="inlineStr">
+        <is>
+          <t>1:44:20</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E325" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C326" s="3" t="inlineStr">
+        <is>
+          <t>2:10:10</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E326" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C327" s="3" t="inlineStr">
+        <is>
+          <t>1:28:06</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E327" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="inlineStr">
+        <is>
+          <t>0:06:19</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C329" s="3" t="inlineStr">
+        <is>
+          <t>1:04:12</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E329" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="inlineStr">
+        <is>
+          <t>0:13:13</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C331" s="3" t="inlineStr">
+        <is>
+          <t>1:10:25</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E331" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>0:09:56</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C333" s="3" t="inlineStr">
+        <is>
+          <t>2:51:52</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E333" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C334" s="2" t="inlineStr">
+        <is>
+          <t>0:29:27</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C335" s="3" t="inlineStr">
+        <is>
+          <t>1:02:31</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E335" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C336" s="2" t="inlineStr">
+        <is>
+          <t>0:45:51</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C337" s="4" t="inlineStr">
+        <is>
+          <t>0:51:47</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C338" s="3" t="inlineStr">
+        <is>
+          <t>1:54:37</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E338" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C339" s="3" t="inlineStr">
+        <is>
+          <t>1:02:02</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E339" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C340" s="3" t="inlineStr">
+        <is>
+          <t>5:06:45</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E340" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C341" s="3" t="inlineStr">
+        <is>
+          <t>1:09:01</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E341" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C342" s="3" t="inlineStr">
+        <is>
+          <t>2:24:32</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E342" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>0:10:35</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>0:31:32</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C345" s="3" t="inlineStr">
+        <is>
+          <t>1:42:25</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E345" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C346" s="3" t="inlineStr">
+        <is>
+          <t>1:12:37</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E346" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C347" s="3" t="inlineStr">
+        <is>
+          <t>1:39:42</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E347" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>0:16:23</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C349" s="4" t="inlineStr">
+        <is>
+          <t>0:53:39</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C350" s="3" t="inlineStr">
+        <is>
+          <t>1:49:21</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E350" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C351" s="2" t="inlineStr">
+        <is>
+          <t>0:42:58</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C352" s="2" t="inlineStr">
+        <is>
+          <t>0:41:47</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C353" s="3" t="inlineStr">
+        <is>
+          <t>1:40:46</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E353" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C354" s="3" t="inlineStr">
+        <is>
+          <t>2:01:42</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E354" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C355" s="3" t="inlineStr">
+        <is>
+          <t>1:14:21</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E355" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C356" s="4" t="inlineStr">
+        <is>
+          <t>0:56:50</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C357" s="3" t="inlineStr">
+        <is>
+          <t>1:12:46</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E357" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C358" s="2" t="inlineStr">
+        <is>
+          <t>0:41:34</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C359" s="4" t="inlineStr">
+        <is>
+          <t>0:56:24</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C360" s="3" t="inlineStr">
+        <is>
+          <t>1:06:15</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E360" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C361" s="2" t="inlineStr">
+        <is>
+          <t>0:49:17</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C362" s="2" t="inlineStr">
+        <is>
+          <t>0:45:37</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C363" s="3" t="inlineStr">
+        <is>
+          <t>2:40:18</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E363" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C364" s="3" t="inlineStr">
+        <is>
+          <t>1:04:39</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E364" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C365" s="4" t="inlineStr">
+        <is>
+          <t>0:50:13</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C366" s="4" t="inlineStr">
+        <is>
+          <t>0:55:22</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C367" s="4" t="inlineStr">
+        <is>
+          <t>0:55:51</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C368" s="3" t="inlineStr">
+        <is>
+          <t>1:48:40</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E368" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C369" s="4" t="inlineStr">
+        <is>
+          <t>0:56:29</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C370" s="2" t="inlineStr">
+        <is>
+          <t>0:04:00</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C371" s="3" t="inlineStr">
+        <is>
+          <t>1:09:21</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E371" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C372" s="4" t="inlineStr">
+        <is>
+          <t>0:57:50</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E372" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C373" s="4" t="inlineStr">
+        <is>
+          <t>0:56:53</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E373" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C374" s="4" t="inlineStr">
+        <is>
+          <t>0:58:17</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E374" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C375" s="2" t="inlineStr">
+        <is>
+          <t>0:39:40</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E375" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C376" s="2" t="inlineStr">
+        <is>
+          <t>0:31:05</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E376" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C377" s="4" t="inlineStr">
+        <is>
+          <t>0:51:11</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E377" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C378" s="3" t="inlineStr">
+        <is>
+          <t>1:03:09</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E378" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C379" s="2" t="inlineStr">
+        <is>
+          <t>0:49:41</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E379" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C380" s="3" t="inlineStr">
+        <is>
+          <t>1:15:20</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E380" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C381" s="3" t="inlineStr">
+        <is>
+          <t>1:16:57</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E381" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C382" s="3" t="inlineStr">
+        <is>
+          <t>1:13:06</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E382" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C383" s="3" t="inlineStr">
+        <is>
+          <t>1:48:06</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E383" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C384" s="3" t="inlineStr">
+        <is>
+          <t>1:42:01</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E384" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C385" s="2" t="inlineStr">
+        <is>
+          <t>0:43:19</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E385" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C386" s="2" t="inlineStr">
+        <is>
+          <t>0:42:38</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E386" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C387" s="2" t="inlineStr">
+        <is>
+          <t>0:15:04</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -5342,7 +10167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5780,6 +10605,431 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Week Range</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strands Completed</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>All 8 Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>06-14-25 to 06-20-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>06-07-25 to 06-13-25</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05-31-25 to 06-06-25</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>05-24-25 to 05-30-25</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>05-17-25 to 05-23-25</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>05-10-25 to 05-16-25</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05-03-25 to 05-09-25</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 5, Strand 6</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04-26-25 to 05-02-25</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04-19-25 to 04-25-25</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04-12-25 to 04-18-25</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04-05-25 to 04-11-25</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>03-29-25 to 04-04-25</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>03-22-25 to 03-28-25</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>03-15-25 to 03-21-25</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>03-08-25 to 03-14-25</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>03-01-25 to 03-07-25</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>02-22-25 to 02-28-25</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 4, Strand 5, Strand 8</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>02-15-25 to 02-21-25</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>02-08-25 to 02-14-25</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>02-01-25 to 02-07-25</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01-25-25 to 01-31-25</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01-18-25 to 01-24-25</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 8</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01-11-25 to 01-17-25</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01-04-25 to 01-10-25</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Strand 6, Strand 8</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
